--- a/프로젝트 문서/설계 문서/테이블 정의서/테이블 정의서 (240902 수정).xlsx
+++ b/프로젝트 문서/설계 문서/테이블 정의서/테이블 정의서 (240902 수정).xlsx
@@ -21,34 +21,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="135">
   <x:si>
-    <x:t>선호 정보 수정 날짜 및 시간</x:t>
-  </x:si>
-  <x:si>
     <x:t>홍대 카페 맞춤 추천 웹서비스</x:t>
   </x:si>
   <x:si>
-    <x:t>사용자 성별 ('M', 'F')</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선호 정보 등록 날짜 및 시간</x:t>
-  </x:si>
-  <x:si>
     <x:t>CURRENT_TIMESTAMP</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">	사용자 생년월일 (YYMMDD)</x:t>
+  </x:si>
+  <x:si>
     <x:t>AUTO_INCREMENT</x:t>
   </x:si>
   <x:si>
+    <x:t>마지막 수정 날짜 및 시간</x:t>
+  </x:si>
+  <x:si>
     <x:t>사용자 고유 번호 (숫자형)</x:t>
   </x:si>
   <x:si>
     <x:t>카페 고유 번호 (숫자형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마지막 수정 날짜 및 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOUBLE</x:t>
   </x:si>
   <x:si>
     <x:t>영문 컬럼명</x:t>
@@ -269,28 +260,37 @@
     <x:t>CAFE_TEL</x:t>
   </x:si>
   <x:si>
+    <x:t>DATABASE ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시  스  템   명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.09.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USER_NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFINITION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입 날짜 및 시간</x:t>
+  </x:si>
+  <x:si>
     <x:t>카페 정보 관리</x:t>
   </x:si>
   <x:si>
-    <x:t>DATABASE ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시  스  템   명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.09.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USER_NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입 날짜 및 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFINITION</x:t>
+    <x:t>MEMBER_LIKE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEMBER_ACT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선호하는 카페 유형 (F: 프랜차이즈, P: 개인)</x:t>
   </x:si>
   <x:si>
     <x:t>위도</x:t>
@@ -317,6 +317,15 @@
     <x:t>주소</x:t>
   </x:si>
   <x:si>
+    <x:t>선호 정보 등록 날짜 및 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선호 정보 수정 날짜 및 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 성별 ('M', 'F')</x:t>
+  </x:si>
+  <x:si>
     <x:t>TOTAL_POINTT</x:t>
   </x:si>
   <x:si>
@@ -405,9 +414,6 @@
   </x:si>
   <x:si>
     <x:t>MEMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOW()</x:t>
   </x:si>
   <x:si>
     <x:t>MOOD</x:t>
@@ -420,16 +426,10 @@
 M05: 이색적인</x:t>
   </x:si>
   <x:si>
-    <x:t>MEMBER_LIKE</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">	사용자 생년월일 (YYMMDD)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MEMBER_ACT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선호하는 카페 유형 (F: 프랜차이즈, P: 개인)</x:t>
+    <x:t>DOUBLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOW()</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -655,6 +655,18 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
+        <x:fgColor rgb="fff2f2f2"/>
+        <x:bgColor rgb="ffeeeeee"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffeeeeee"/>
+        <x:bgColor rgb="fff2f2f2"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
         <x:fgColor rgb="ffd9d9d9"/>
         <x:bgColor rgb="ff6fa8dc"/>
       </x:patternFill>
@@ -665,18 +677,6 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="fff2f2f2"/>
-        <x:bgColor rgb="ffeeeeee"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffeeeeee"/>
-        <x:bgColor rgb="fff2f2f2"/>
-      </x:patternFill>
-    </x:fill>
   </x:fills>
   <x:borders count="53">
     <x:border>
@@ -1086,6 +1086,34 @@
       </x:bottom>
     </x:border>
     <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
       <x:left style="medium">
         <x:color rgb="ff000000"/>
       </x:left>
@@ -1212,45 +1240,73 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
+      <x:left style="medium">
+        <x:color auto="1"/>
       </x:left>
       <x:right>
         <x:color auto="1"/>
       </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
+      <x:top style="medium">
+        <x:color auto="1"/>
       </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left>
         <x:color auto="1"/>
       </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
       <x:right style="medium">
-        <x:color rgb="ff000000"/>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
         <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
-      <x:right>
+      <x:right style="medium">
         <x:color auto="1"/>
       </x:right>
-      <x:top style="medium">
-        <x:color auto="1"/>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
+      <x:bottom>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -1260,11 +1316,11 @@
       <x:right style="medium">
         <x:color auto="1"/>
       </x:right>
-      <x:top style="medium">
+      <x:top style="thin">
         <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -1275,7 +1331,7 @@
         <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
         <x:color auto="1"/>
@@ -1285,27 +1341,41 @@
       <x:left style="thin">
         <x:color auto="1"/>
       </x:left>
-      <x:right style="medium">
+      <x:right>
         <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
         <x:color auto="1"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color auto="1"/>
+        <x:color rgb="ff000000"/>
       </x:left>
       <x:right>
         <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
-        <x:color auto="1"/>
+        <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom style="medium">
+      <x:bottom>
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -1314,108 +1384,38 @@
         <x:color auto="1"/>
       </x:left>
       <x:right style="medium">
-        <x:color auto="1"/>
+        <x:color rgb="ff000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color auto="1"/>
+        <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom style="medium">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="medium">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
+      <x:bottom>
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
-      <x:right style="medium">
+      <x:right>
         <x:color auto="1"/>
       </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
+      <x:top style="medium">
+        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color auto="1"/>
       </x:left>
       <x:right style="medium">
         <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
         <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
         <x:color auto="1"/>
@@ -1433,7 +1433,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="142">
+  <x:cellXfs count="141">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2131,65 +2131,419 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="9" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="9" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="9" fillId="6" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="9" fillId="6" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="9" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="9" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="9" fillId="7" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="9" fillId="7" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="9" fillId="7" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="9" fillId="7" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="7" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="14" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="14" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2209,13 +2563,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2236,7 +2590,7 @@
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2296,13 +2650,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2322,13 +2676,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2348,32 +2702,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -2387,536 +2715,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="16" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="16" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="16" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="16" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="15" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="15" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="14" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="9" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2926,19 +2770,6 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="165" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="165" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -2952,235 +2783,105 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="165" fontId="9" fillId="8" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="165" fontId="9" fillId="8" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="12" fillId="8" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="12" fillId="8" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="165" fontId="9" fillId="8" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="165" fontId="9" fillId="8" borderId="50" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="165" fontId="9" fillId="8" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="165" fontId="9" fillId="8" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="165" fontId="9" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="165" fontId="9" fillId="9" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="165" fontId="9" fillId="9" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="165" fontId="9" fillId="9" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -3199,14 +2900,300 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="bottom" wrapText="1"/>
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="15" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="16" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="16" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="16" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="16" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="15" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="15" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -3535,8 +3522,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B5:O91"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="K11" activeCellId="0" sqref="K11:K11"/>
+    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="N37" activeCellId="0" sqref="N37:O37"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
@@ -3552,212 +3539,212 @@
   </x:cols>
   <x:sheetData>
     <x:row r="5" spans="3:15" ht="21">
-      <x:c r="C5" s="55" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D5" s="56"/>
-      <x:c r="E5" s="56"/>
-      <x:c r="F5" s="56"/>
-      <x:c r="G5" s="56"/>
-      <x:c r="H5" s="56"/>
-      <x:c r="I5" s="56"/>
-      <x:c r="J5" s="56"/>
-      <x:c r="K5" s="56"/>
-      <x:c r="L5" s="56"/>
-      <x:c r="M5" s="56"/>
-      <x:c r="N5" s="56"/>
-      <x:c r="O5" s="57"/>
+      <x:c r="C5" s="83" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D5" s="84"/>
+      <x:c r="E5" s="84"/>
+      <x:c r="F5" s="84"/>
+      <x:c r="G5" s="84"/>
+      <x:c r="H5" s="84"/>
+      <x:c r="I5" s="84"/>
+      <x:c r="J5" s="84"/>
+      <x:c r="K5" s="84"/>
+      <x:c r="L5" s="84"/>
+      <x:c r="M5" s="84"/>
+      <x:c r="N5" s="84"/>
+      <x:c r="O5" s="85"/>
     </x:row>
     <x:row r="6" spans="2:15" ht="22.05000000000000071054" customHeight="1">
       <x:c r="B6" s="1"/>
-      <x:c r="C6" s="58" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D6" s="59"/>
-      <x:c r="E6" s="60" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F6" s="61"/>
-      <x:c r="G6" s="61"/>
-      <x:c r="H6" s="61"/>
-      <x:c r="I6" s="61"/>
-      <x:c r="J6" s="61"/>
-      <x:c r="K6" s="61"/>
-      <x:c r="L6" s="61"/>
-      <x:c r="M6" s="59"/>
+      <x:c r="C6" s="86" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D6" s="87"/>
+      <x:c r="E6" s="88" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F6" s="89"/>
+      <x:c r="G6" s="89"/>
+      <x:c r="H6" s="89"/>
+      <x:c r="I6" s="89"/>
+      <x:c r="J6" s="89"/>
+      <x:c r="K6" s="89"/>
+      <x:c r="L6" s="89"/>
+      <x:c r="M6" s="87"/>
       <x:c r="N6" s="41" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O6" s="42"/>
     </x:row>
     <x:row r="7" spans="3:15" ht="17.80000000000000071054" customHeight="1">
-      <x:c r="C7" s="58" t="s">
+      <x:c r="C7" s="86" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D7" s="87"/>
+      <x:c r="E7" s="90" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F7" s="89"/>
+      <x:c r="G7" s="89"/>
+      <x:c r="H7" s="89"/>
+      <x:c r="I7" s="89"/>
+      <x:c r="J7" s="89"/>
+      <x:c r="K7" s="89"/>
+      <x:c r="L7" s="89"/>
+      <x:c r="M7" s="87"/>
+      <x:c r="N7" s="41" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O7" s="42"/>
+    </x:row>
+    <x:row r="8" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C8" s="86" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="D7" s="59"/>
-      <x:c r="E7" s="62" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="F7" s="61"/>
-      <x:c r="G7" s="61"/>
-      <x:c r="H7" s="61"/>
-      <x:c r="I7" s="61"/>
-      <x:c r="J7" s="61"/>
-      <x:c r="K7" s="61"/>
-      <x:c r="L7" s="61"/>
-      <x:c r="M7" s="59"/>
-      <x:c r="N7" s="41" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="O7" s="42"/>
-    </x:row>
-    <x:row r="8" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C8" s="58" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D8" s="59"/>
-      <x:c r="E8" s="60"/>
-      <x:c r="F8" s="61"/>
-      <x:c r="G8" s="61"/>
-      <x:c r="H8" s="61"/>
-      <x:c r="I8" s="61"/>
-      <x:c r="J8" s="61"/>
-      <x:c r="K8" s="61"/>
-      <x:c r="L8" s="61"/>
-      <x:c r="M8" s="59"/>
+      <x:c r="D8" s="87"/>
+      <x:c r="E8" s="88"/>
+      <x:c r="F8" s="89"/>
+      <x:c r="G8" s="89"/>
+      <x:c r="H8" s="89"/>
+      <x:c r="I8" s="89"/>
+      <x:c r="J8" s="89"/>
+      <x:c r="K8" s="89"/>
+      <x:c r="L8" s="89"/>
+      <x:c r="M8" s="87"/>
       <x:c r="N8" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O8" s="4" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C9" s="58" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D9" s="59"/>
-      <x:c r="E9" s="60" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="F9" s="61"/>
-      <x:c r="G9" s="61"/>
-      <x:c r="H9" s="61"/>
-      <x:c r="I9" s="61"/>
-      <x:c r="J9" s="61"/>
-      <x:c r="K9" s="61"/>
-      <x:c r="L9" s="61"/>
-      <x:c r="M9" s="59"/>
+      <x:c r="C9" s="86" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D9" s="87"/>
+      <x:c r="E9" s="88" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F9" s="89"/>
+      <x:c r="G9" s="89"/>
+      <x:c r="H9" s="89"/>
+      <x:c r="I9" s="89"/>
+      <x:c r="J9" s="89"/>
+      <x:c r="K9" s="89"/>
+      <x:c r="L9" s="89"/>
+      <x:c r="M9" s="87"/>
       <x:c r="N9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="O9" s="5"/>
     </x:row>
     <x:row r="10" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C10" s="58" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D10" s="59"/>
-      <x:c r="E10" s="63" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F10" s="64"/>
-      <x:c r="G10" s="64"/>
-      <x:c r="H10" s="64"/>
-      <x:c r="I10" s="64"/>
-      <x:c r="J10" s="64"/>
-      <x:c r="K10" s="64"/>
-      <x:c r="L10" s="64"/>
-      <x:c r="M10" s="64"/>
-      <x:c r="N10" s="64"/>
-      <x:c r="O10" s="65"/>
+      <x:c r="C10" s="86" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D10" s="87"/>
+      <x:c r="E10" s="91" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F10" s="92"/>
+      <x:c r="G10" s="92"/>
+      <x:c r="H10" s="92"/>
+      <x:c r="I10" s="92"/>
+      <x:c r="J10" s="92"/>
+      <x:c r="K10" s="92"/>
+      <x:c r="L10" s="92"/>
+      <x:c r="M10" s="92"/>
+      <x:c r="N10" s="92"/>
+      <x:c r="O10" s="93"/>
     </x:row>
     <x:row r="11" spans="3:15" ht="26.35000000000000142109">
       <x:c r="C11" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I11" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J11" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K11" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M11" s="7" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="N11" s="66" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="O11" s="67"/>
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="N11" s="94" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="O11" s="95"/>
     </x:row>
     <x:row r="12" spans="3:15">
       <x:c r="C12" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D12" s="25" t="s">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="25" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F12" s="25" t="s">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G12" s="9"/>
       <x:c r="H12" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I12" s="10"/>
       <x:c r="J12" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K12" s="9" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L12" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="M12" s="10" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N12" s="96" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="N12" s="68" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="O12" s="67"/>
+      <x:c r="O12" s="95"/>
     </x:row>
     <x:row r="13" spans="3:15">
       <x:c r="C13" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D13" s="25" t="s">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E13" s="25" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F13" s="25" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G13" s="9">
         <x:v>100</x:v>
@@ -3766,10 +3753,10 @@
       <x:c r="I13" s="9"/>
       <x:c r="J13" s="11"/>
       <x:c r="K13" s="9" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L13" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="M13" s="10"/>
       <x:c r="N13" s="24"/>
@@ -3780,13 +3767,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D14" s="25" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E14" s="25" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F14" s="25" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G14" s="10">
         <x:v>300</x:v>
@@ -3795,25 +3782,25 @@
       <x:c r="I14" s="9"/>
       <x:c r="J14" s="11"/>
       <x:c r="K14" s="9" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L14" s="11"/>
       <x:c r="M14" s="10"/>
-      <x:c r="N14" s="68"/>
-      <x:c r="O14" s="67"/>
+      <x:c r="N14" s="96"/>
+      <x:c r="O14" s="95"/>
     </x:row>
     <x:row r="15" spans="3:15">
       <x:c r="C15" s="12">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D15" s="27" t="s">
-        <x:v>56</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E15" s="27" t="s">
-        <x:v>87</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F15" s="27" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G15" s="13">
         <x:v>50</x:v>
@@ -3822,25 +3809,25 @@
       <x:c r="I15" s="13"/>
       <x:c r="J15" s="14"/>
       <x:c r="K15" s="13" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L15" s="14"/>
       <x:c r="M15" s="14"/>
-      <x:c r="N15" s="69"/>
-      <x:c r="O15" s="70"/>
+      <x:c r="N15" s="97"/>
+      <x:c r="O15" s="98"/>
     </x:row>
     <x:row r="16" spans="3:15">
       <x:c r="C16" s="15">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D16" s="26" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E16" s="26" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F16" s="26" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G16" s="16">
         <x:v>20</x:v>
@@ -3849,25 +3836,25 @@
       <x:c r="I16" s="16"/>
       <x:c r="J16" s="16"/>
       <x:c r="K16" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L16" s="16"/>
       <x:c r="M16" s="17"/>
-      <x:c r="N16" s="71"/>
-      <x:c r="O16" s="72"/>
+      <x:c r="N16" s="99"/>
+      <x:c r="O16" s="100"/>
     </x:row>
     <x:row r="17" spans="3:15">
       <x:c r="C17" s="15">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D17" s="26" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E17" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F17" s="26" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G17" s="16">
         <x:v>6</x:v>
@@ -3876,27 +3863,27 @@
       <x:c r="I17" s="16"/>
       <x:c r="J17" s="17"/>
       <x:c r="K17" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L17" s="17"/>
       <x:c r="M17" s="17"/>
-      <x:c r="N17" s="71" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="O17" s="72"/>
+      <x:c r="N17" s="99" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O17" s="100"/>
     </x:row>
     <x:row r="18" spans="3:15">
       <x:c r="C18" s="15">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="26" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="26" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F18" s="26" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G18" s="16">
         <x:v>1</x:v>
@@ -3905,279 +3892,279 @@
       <x:c r="I18" s="16"/>
       <x:c r="J18" s="17"/>
       <x:c r="K18" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L18" s="17"/>
       <x:c r="M18" s="17"/>
-      <x:c r="N18" s="71" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="O18" s="72"/>
+      <x:c r="N18" s="99" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="O18" s="100"/>
     </x:row>
     <x:row r="19" spans="3:15">
       <x:c r="C19" s="15">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D19" s="26" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E19" s="26" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F19" s="26" t="s">
-        <x:v>85</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G19" s="16"/>
       <x:c r="H19" s="16"/>
       <x:c r="I19" s="16"/>
       <x:c r="J19" s="17"/>
       <x:c r="K19" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L19" s="17"/>
       <x:c r="M19" s="17" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="N19" s="71" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="O19" s="72"/>
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="N19" s="99" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="O19" s="100"/>
     </x:row>
     <x:row r="20" spans="3:15" ht="16.75">
       <x:c r="C20" s="18">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="38" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E20" s="38" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F20" s="38" t="s">
-        <x:v>85</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G20" s="19"/>
       <x:c r="H20" s="19"/>
       <x:c r="I20" s="19"/>
       <x:c r="J20" s="20"/>
       <x:c r="K20" s="19" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="L20" s="20"/>
       <x:c r="M20" s="20" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="N20" s="73" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="O20" s="74"/>
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="N20" s="101" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="O20" s="102"/>
     </x:row>
     <x:row r="23" spans="3:15" ht="21">
-      <x:c r="C23" s="112" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D23" s="113"/>
-      <x:c r="E23" s="113"/>
-      <x:c r="F23" s="113"/>
-      <x:c r="G23" s="113"/>
-      <x:c r="H23" s="113"/>
-      <x:c r="I23" s="113"/>
-      <x:c r="J23" s="113"/>
-      <x:c r="K23" s="113"/>
-      <x:c r="L23" s="113"/>
-      <x:c r="M23" s="113"/>
-      <x:c r="N23" s="113"/>
-      <x:c r="O23" s="114"/>
+      <x:c r="C23" s="103" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D23" s="104"/>
+      <x:c r="E23" s="104"/>
+      <x:c r="F23" s="104"/>
+      <x:c r="G23" s="104"/>
+      <x:c r="H23" s="104"/>
+      <x:c r="I23" s="104"/>
+      <x:c r="J23" s="104"/>
+      <x:c r="K23" s="104"/>
+      <x:c r="L23" s="104"/>
+      <x:c r="M23" s="104"/>
+      <x:c r="N23" s="104"/>
+      <x:c r="O23" s="105"/>
     </x:row>
     <x:row r="24" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C24" s="115" t="s">
+      <x:c r="C24" s="106" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D24" s="87"/>
+      <x:c r="E24" s="88" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F24" s="89"/>
+      <x:c r="G24" s="89"/>
+      <x:c r="H24" s="89"/>
+      <x:c r="I24" s="89"/>
+      <x:c r="J24" s="89"/>
+      <x:c r="K24" s="89"/>
+      <x:c r="L24" s="89"/>
+      <x:c r="M24" s="87"/>
+      <x:c r="N24" s="41" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="O24" s="70"/>
+    </x:row>
+    <x:row r="25" spans="3:15" ht="17.80000000000000071054" customHeight="1">
+      <x:c r="C25" s="106" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D25" s="87"/>
+      <x:c r="E25" s="90" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F25" s="89"/>
+      <x:c r="G25" s="89"/>
+      <x:c r="H25" s="89"/>
+      <x:c r="I25" s="89"/>
+      <x:c r="J25" s="89"/>
+      <x:c r="K25" s="89"/>
+      <x:c r="L25" s="89"/>
+      <x:c r="M25" s="87"/>
+      <x:c r="N25" s="41" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O25" s="70"/>
+    </x:row>
+    <x:row r="26" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C26" s="106" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D26" s="87"/>
+      <x:c r="E26" s="88"/>
+      <x:c r="F26" s="89"/>
+      <x:c r="G26" s="89"/>
+      <x:c r="H26" s="89"/>
+      <x:c r="I26" s="89"/>
+      <x:c r="J26" s="89"/>
+      <x:c r="K26" s="89"/>
+      <x:c r="L26" s="89"/>
+      <x:c r="M26" s="87"/>
+      <x:c r="N26" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="O26" s="71" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C27" s="106" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D27" s="87"/>
+      <x:c r="E27" s="88" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F27" s="89"/>
+      <x:c r="G27" s="89"/>
+      <x:c r="H27" s="89"/>
+      <x:c r="I27" s="89"/>
+      <x:c r="J27" s="89"/>
+      <x:c r="K27" s="89"/>
+      <x:c r="L27" s="89"/>
+      <x:c r="M27" s="87"/>
+      <x:c r="N27" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O27" s="72"/>
+    </x:row>
+    <x:row r="28" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C28" s="106" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D28" s="87"/>
+      <x:c r="E28" s="91" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="F28" s="92"/>
+      <x:c r="G28" s="92"/>
+      <x:c r="H28" s="92"/>
+      <x:c r="I28" s="92"/>
+      <x:c r="J28" s="92"/>
+      <x:c r="K28" s="92"/>
+      <x:c r="L28" s="92"/>
+      <x:c r="M28" s="92"/>
+      <x:c r="N28" s="92"/>
+      <x:c r="O28" s="107"/>
+    </x:row>
+    <x:row r="29" spans="3:15" ht="26.35000000000000142109">
+      <x:c r="C29" s="73" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D29" s="7" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E29" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F29" s="7" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G29" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H29" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I29" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="J29" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K29" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L29" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M29" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="N29" s="94" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D24" s="59"/>
-      <x:c r="E24" s="60" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F24" s="61"/>
-      <x:c r="G24" s="61"/>
-      <x:c r="H24" s="61"/>
-      <x:c r="I24" s="61"/>
-      <x:c r="J24" s="61"/>
-      <x:c r="K24" s="61"/>
-      <x:c r="L24" s="61"/>
-      <x:c r="M24" s="59"/>
-      <x:c r="N24" s="41" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="O24" s="116"/>
-    </x:row>
-    <x:row r="25" spans="3:15" ht="17.80000000000000071054" customHeight="1">
-      <x:c r="C25" s="115" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="D25" s="59"/>
-      <x:c r="E25" s="62" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="F25" s="61"/>
-      <x:c r="G25" s="61"/>
-      <x:c r="H25" s="61"/>
-      <x:c r="I25" s="61"/>
-      <x:c r="J25" s="61"/>
-      <x:c r="K25" s="61"/>
-      <x:c r="L25" s="61"/>
-      <x:c r="M25" s="59"/>
-      <x:c r="N25" s="41" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="O25" s="116"/>
-    </x:row>
-    <x:row r="26" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C26" s="115" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D26" s="59"/>
-      <x:c r="E26" s="60"/>
-      <x:c r="F26" s="61"/>
-      <x:c r="G26" s="61"/>
-      <x:c r="H26" s="61"/>
-      <x:c r="I26" s="61"/>
-      <x:c r="J26" s="61"/>
-      <x:c r="K26" s="61"/>
-      <x:c r="L26" s="61"/>
-      <x:c r="M26" s="59"/>
-      <x:c r="N26" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="O26" s="117" t="s">
-        <x:v>112</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C27" s="115" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D27" s="59"/>
-      <x:c r="E27" s="60" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F27" s="61"/>
-      <x:c r="G27" s="61"/>
-      <x:c r="H27" s="61"/>
-      <x:c r="I27" s="61"/>
-      <x:c r="J27" s="61"/>
-      <x:c r="K27" s="61"/>
-      <x:c r="L27" s="61"/>
-      <x:c r="M27" s="59"/>
-      <x:c r="N27" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O27" s="118"/>
-    </x:row>
-    <x:row r="28" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C28" s="115" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D28" s="59"/>
-      <x:c r="E28" s="63" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="F28" s="64"/>
-      <x:c r="G28" s="64"/>
-      <x:c r="H28" s="64"/>
-      <x:c r="I28" s="64"/>
-      <x:c r="J28" s="64"/>
-      <x:c r="K28" s="64"/>
-      <x:c r="L28" s="64"/>
-      <x:c r="M28" s="64"/>
-      <x:c r="N28" s="64"/>
-      <x:c r="O28" s="119"/>
-    </x:row>
-    <x:row r="29" spans="3:15" ht="26.35000000000000142109">
-      <x:c r="C29" s="120" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D29" s="7" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E29" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F29" s="7" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G29" s="7" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H29" s="7" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="I29" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="J29" s="7" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K29" s="7" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="L29" s="7" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="M29" s="7" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="N29" s="66" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="O29" s="121"/>
+      <x:c r="O29" s="108"/>
     </x:row>
     <x:row r="30" spans="3:15">
       <x:c r="C30" s="33">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D30" s="25" t="s">
-        <x:v>46</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E30" s="25" t="s">
-        <x:v>38</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F30" s="25" t="s">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G30" s="9"/>
       <x:c r="H30" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I30" s="10"/>
       <x:c r="J30" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K30" s="9" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L30" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="M30" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="N30" s="68" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="O30" s="121"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N30" s="96" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="O30" s="108"/>
     </x:row>
     <x:row r="31" spans="3:15">
       <x:c r="C31" s="33">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D31" s="25" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E31" s="25" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F31" s="25" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G31" s="9">
         <x:v>100</x:v>
@@ -4186,548 +4173,548 @@
       <x:c r="I31" s="9"/>
       <x:c r="J31" s="11"/>
       <x:c r="K31" s="9" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L31" s="10"/>
       <x:c r="M31" s="10"/>
       <x:c r="N31" s="24"/>
-      <x:c r="O31" s="122"/>
-    </x:row>
-    <x:row r="32" spans="3:15" s="96" customFormat="1">
-      <x:c r="C32" s="123">
+      <x:c r="O31" s="74"/>
+    </x:row>
+    <x:row r="32" spans="3:15" s="57" customFormat="1">
+      <x:c r="C32" s="75">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D32" s="92" t="s">
+      <x:c r="D32" s="56" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E32" s="56" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="F32" s="59" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G32" s="56">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="H32" s="56"/>
+      <x:c r="I32" s="56"/>
+      <x:c r="J32" s="56"/>
+      <x:c r="K32" s="56"/>
+      <x:c r="L32" s="56"/>
+      <x:c r="M32" s="56"/>
+      <x:c r="N32" s="109"/>
+      <x:c r="O32" s="110"/>
+    </x:row>
+    <x:row r="33" spans="3:15" s="57" customFormat="1">
+      <x:c r="C33" s="75">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D33" s="60" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E33" s="61" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F33" s="59" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G33" s="55">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H33" s="56"/>
+      <x:c r="I33" s="56"/>
+      <x:c r="J33" s="56"/>
+      <x:c r="K33" s="56"/>
+      <x:c r="L33" s="56"/>
+      <x:c r="M33" s="56"/>
+      <x:c r="N33" s="111" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="O33" s="112"/>
+    </x:row>
+    <x:row r="34" spans="3:15" s="57" customFormat="1">
+      <x:c r="C34" s="75">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D34" s="56" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E34" s="58" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F34" s="59" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G34" s="56">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H34" s="56"/>
+      <x:c r="I34" s="56"/>
+      <x:c r="J34" s="56"/>
+      <x:c r="K34" s="56"/>
+      <x:c r="L34" s="56"/>
+      <x:c r="M34" s="56"/>
+      <x:c r="N34" s="111"/>
+      <x:c r="O34" s="112"/>
+    </x:row>
+    <x:row r="35" spans="3:15" s="57" customFormat="1">
+      <x:c r="C35" s="75">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D35" s="56" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E35" s="58" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F35" s="59" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G35" s="56">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H35" s="56"/>
+      <x:c r="I35" s="56"/>
+      <x:c r="J35" s="56"/>
+      <x:c r="K35" s="56"/>
+      <x:c r="L35" s="56"/>
+      <x:c r="M35" s="56"/>
+      <x:c r="N35" s="109"/>
+      <x:c r="O35" s="110"/>
+    </x:row>
+    <x:row r="36" spans="3:15" s="57" customFormat="1">
+      <x:c r="C36" s="75">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D36" s="58" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E36" s="58" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F36" s="59" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="G36" s="56"/>
+      <x:c r="H36" s="56"/>
+      <x:c r="I36" s="56"/>
+      <x:c r="J36" s="56"/>
+      <x:c r="K36" s="56"/>
+      <x:c r="L36" s="56"/>
+      <x:c r="M36" s="56"/>
+      <x:c r="N36" s="113"/>
+      <x:c r="O36" s="114"/>
+    </x:row>
+    <x:row r="37" spans="3:15" s="57" customFormat="1">
+      <x:c r="C37" s="75">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D37" s="58" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E37" s="58" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="F37" s="59" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="G37" s="56"/>
+      <x:c r="H37" s="56"/>
+      <x:c r="I37" s="56"/>
+      <x:c r="J37" s="56"/>
+      <x:c r="K37" s="56"/>
+      <x:c r="L37" s="56"/>
+      <x:c r="M37" s="56"/>
+      <x:c r="N37" s="113"/>
+      <x:c r="O37" s="114"/>
+    </x:row>
+    <x:row r="38" spans="3:15" s="57" customFormat="1">
+      <x:c r="C38" s="75">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D38" s="56" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E38" s="61" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F38" s="59" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G38" s="56">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H38" s="56"/>
+      <x:c r="I38" s="56"/>
+      <x:c r="J38" s="56"/>
+      <x:c r="K38" s="56"/>
+      <x:c r="L38" s="56"/>
+      <x:c r="M38" s="56"/>
+      <x:c r="N38" s="109"/>
+      <x:c r="O38" s="110"/>
+    </x:row>
+    <x:row r="39" spans="3:15" s="57" customFormat="1">
+      <x:c r="C39" s="75">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D39" s="56" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E39" s="61" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F39" s="59" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G39" s="56">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H39" s="56"/>
+      <x:c r="I39" s="56"/>
+      <x:c r="J39" s="56"/>
+      <x:c r="K39" s="56"/>
+      <x:c r="L39" s="56"/>
+      <x:c r="M39" s="56"/>
+      <x:c r="N39" s="109"/>
+      <x:c r="O39" s="110"/>
+    </x:row>
+    <x:row r="40" spans="3:15" s="57" customFormat="1">
+      <x:c r="C40" s="75">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D40" s="56" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E40" s="56" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F40" s="59" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G40" s="56">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H40" s="56"/>
+      <x:c r="I40" s="56"/>
+      <x:c r="J40" s="56"/>
+      <x:c r="K40" s="56"/>
+      <x:c r="L40" s="56"/>
+      <x:c r="M40" s="56"/>
+      <x:c r="N40" s="109"/>
+      <x:c r="O40" s="110"/>
+    </x:row>
+    <x:row r="41" spans="3:15" s="57" customFormat="1">
+      <x:c r="C41" s="75">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D41" s="56" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E41" s="56" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="F41" s="59" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G41" s="55">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H41" s="56"/>
+      <x:c r="I41" s="56"/>
+      <x:c r="J41" s="56"/>
+      <x:c r="K41" s="56"/>
+      <x:c r="L41" s="56"/>
+      <x:c r="M41" s="56"/>
+      <x:c r="N41" s="111" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O41" s="112"/>
+    </x:row>
+    <x:row r="42" spans="3:15" s="57" customFormat="1">
+      <x:c r="C42" s="75">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D42" s="56" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E42" s="56" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F42" s="59" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G42" s="55">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H42" s="56"/>
+      <x:c r="I42" s="56"/>
+      <x:c r="J42" s="56"/>
+      <x:c r="K42" s="56"/>
+      <x:c r="L42" s="56"/>
+      <x:c r="M42" s="56"/>
+      <x:c r="N42" s="111" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O42" s="112"/>
+    </x:row>
+    <x:row r="43" spans="3:15" s="57" customFormat="1">
+      <x:c r="C43" s="75">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D43" s="56" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E43" s="56" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="E32" s="92" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="F32" s="98" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G32" s="92">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="H32" s="92"/>
-      <x:c r="I32" s="92"/>
-      <x:c r="J32" s="92"/>
-      <x:c r="K32" s="92"/>
-      <x:c r="L32" s="92"/>
-      <x:c r="M32" s="92"/>
-      <x:c r="N32" s="93"/>
-      <x:c r="O32" s="124"/>
-    </x:row>
-    <x:row r="33" spans="3:15" s="96" customFormat="1">
-      <x:c r="C33" s="123">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D33" s="99" t="s">
+      <x:c r="F43" s="59" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G43" s="55">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H43" s="56"/>
+      <x:c r="I43" s="56"/>
+      <x:c r="J43" s="56"/>
+      <x:c r="K43" s="56"/>
+      <x:c r="L43" s="56"/>
+      <x:c r="M43" s="56"/>
+      <x:c r="N43" s="111" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O43" s="112"/>
+    </x:row>
+    <x:row r="44" spans="3:15" s="57" customFormat="1">
+      <x:c r="C44" s="75">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E33" s="100" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="F33" s="98" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G33" s="91">
+      <x:c r="D44" s="56" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E44" s="56" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="F44" s="59" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G44" s="55">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="H33" s="92"/>
-      <x:c r="I33" s="92"/>
-      <x:c r="J33" s="92"/>
-      <x:c r="K33" s="92"/>
-      <x:c r="L33" s="92"/>
-      <x:c r="M33" s="92"/>
-      <x:c r="N33" s="94" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="O33" s="125"/>
-    </x:row>
-    <x:row r="34" spans="3:15" s="96" customFormat="1">
-      <x:c r="C34" s="123">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D34" s="92" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E34" s="97" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="F34" s="98" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G34" s="92">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="H34" s="92"/>
-      <x:c r="I34" s="92"/>
-      <x:c r="J34" s="92"/>
-      <x:c r="K34" s="92"/>
-      <x:c r="L34" s="92"/>
-      <x:c r="M34" s="92"/>
-      <x:c r="N34" s="94"/>
-      <x:c r="O34" s="125"/>
-    </x:row>
-    <x:row r="35" spans="3:15" s="96" customFormat="1">
-      <x:c r="C35" s="123">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D35" s="92" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="E35" s="97" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F35" s="98" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G35" s="92">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="H35" s="92"/>
-      <x:c r="I35" s="92"/>
-      <x:c r="J35" s="92"/>
-      <x:c r="K35" s="92"/>
-      <x:c r="L35" s="92"/>
-      <x:c r="M35" s="92"/>
-      <x:c r="N35" s="93"/>
-      <x:c r="O35" s="124"/>
-    </x:row>
-    <x:row r="36" spans="3:15" s="96" customFormat="1">
-      <x:c r="C36" s="123">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D36" s="97" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E36" s="97" t="s">
+      <x:c r="H44" s="56"/>
+      <x:c r="I44" s="56"/>
+      <x:c r="J44" s="56"/>
+      <x:c r="K44" s="56"/>
+      <x:c r="L44" s="56"/>
+      <x:c r="M44" s="56"/>
+      <x:c r="N44" s="111" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O44" s="112"/>
+    </x:row>
+    <x:row r="45" spans="3:15" s="57" customFormat="1">
+      <x:c r="C45" s="75">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D45" s="56" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E45" s="56" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F45" s="59" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G45" s="55">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H45" s="56"/>
+      <x:c r="I45" s="56"/>
+      <x:c r="J45" s="56"/>
+      <x:c r="K45" s="56"/>
+      <x:c r="L45" s="56"/>
+      <x:c r="M45" s="56"/>
+      <x:c r="N45" s="111" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O45" s="112"/>
+    </x:row>
+    <x:row r="46" spans="3:15" s="57" customFormat="1">
+      <x:c r="C46" s="75">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D46" s="56" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E46" s="56" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="F46" s="59" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G46" s="55">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H46" s="56"/>
+      <x:c r="I46" s="56"/>
+      <x:c r="J46" s="56"/>
+      <x:c r="K46" s="56"/>
+      <x:c r="L46" s="56"/>
+      <x:c r="M46" s="56"/>
+      <x:c r="N46" s="111" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O46" s="112"/>
+    </x:row>
+    <x:row r="47" spans="3:15" s="57" customFormat="1">
+      <x:c r="C47" s="75">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D47" s="56" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E47" s="58" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="F36" s="98" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G36" s="92"/>
-      <x:c r="H36" s="92"/>
-      <x:c r="I36" s="92"/>
-      <x:c r="J36" s="92"/>
-      <x:c r="K36" s="92"/>
-      <x:c r="L36" s="92"/>
-      <x:c r="M36" s="92"/>
-      <x:c r="N36" s="95"/>
-      <x:c r="O36" s="126"/>
-    </x:row>
-    <x:row r="37" spans="3:15" s="96" customFormat="1">
-      <x:c r="C37" s="123">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D37" s="97" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E37" s="97" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="F37" s="98" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G37" s="92"/>
-      <x:c r="H37" s="92"/>
-      <x:c r="I37" s="92"/>
-      <x:c r="J37" s="92"/>
-      <x:c r="K37" s="92"/>
-      <x:c r="L37" s="92"/>
-      <x:c r="M37" s="92"/>
-      <x:c r="N37" s="95"/>
-      <x:c r="O37" s="126"/>
-    </x:row>
-    <x:row r="38" spans="3:15" s="96" customFormat="1">
-      <x:c r="C38" s="123">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D38" s="92" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E38" s="100" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="F38" s="98" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G38" s="92">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H38" s="92"/>
-      <x:c r="I38" s="92"/>
-      <x:c r="J38" s="92"/>
-      <x:c r="K38" s="92"/>
-      <x:c r="L38" s="92"/>
-      <x:c r="M38" s="92"/>
-      <x:c r="N38" s="93"/>
-      <x:c r="O38" s="124"/>
-    </x:row>
-    <x:row r="39" spans="3:15" s="96" customFormat="1">
-      <x:c r="C39" s="123">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D39" s="92" t="s">
+      <x:c r="F47" s="59" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G47" s="56"/>
+      <x:c r="H47" s="56"/>
+      <x:c r="I47" s="56"/>
+      <x:c r="J47" s="56"/>
+      <x:c r="K47" s="56"/>
+      <x:c r="L47" s="56"/>
+      <x:c r="M47" s="56"/>
+      <x:c r="N47" s="109"/>
+      <x:c r="O47" s="110"/>
+    </x:row>
+    <x:row r="48" spans="3:15" s="57" customFormat="1">
+      <x:c r="C48" s="75">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D48" s="56" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E48" s="56" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F48" s="59" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G48" s="56"/>
+      <x:c r="H48" s="56"/>
+      <x:c r="I48" s="56"/>
+      <x:c r="J48" s="56"/>
+      <x:c r="K48" s="56"/>
+      <x:c r="L48" s="56"/>
+      <x:c r="M48" s="56"/>
+      <x:c r="N48" s="109"/>
+      <x:c r="O48" s="110"/>
+    </x:row>
+    <x:row r="49" spans="3:15" s="57" customFormat="1">
+      <x:c r="C49" s="75">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D49" s="56" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E49" s="56" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F49" s="59" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G49" s="56"/>
+      <x:c r="H49" s="56"/>
+      <x:c r="I49" s="56"/>
+      <x:c r="J49" s="56"/>
+      <x:c r="K49" s="56"/>
+      <x:c r="L49" s="56"/>
+      <x:c r="M49" s="56"/>
+      <x:c r="N49" s="109"/>
+      <x:c r="O49" s="110"/>
+    </x:row>
+    <x:row r="50" spans="3:15" s="57" customFormat="1">
+      <x:c r="C50" s="75">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D50" s="56" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E50" s="56" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="F50" s="59" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G50" s="56"/>
+      <x:c r="H50" s="56"/>
+      <x:c r="I50" s="56"/>
+      <x:c r="J50" s="56"/>
+      <x:c r="K50" s="56"/>
+      <x:c r="L50" s="56"/>
+      <x:c r="M50" s="56"/>
+      <x:c r="N50" s="109"/>
+      <x:c r="O50" s="110"/>
+    </x:row>
+    <x:row r="51" spans="3:15" s="57" customFormat="1">
+      <x:c r="C51" s="75">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D51" s="56" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E51" s="56" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F51" s="59" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G51" s="56"/>
+      <x:c r="H51" s="56"/>
+      <x:c r="I51" s="56"/>
+      <x:c r="J51" s="56"/>
+      <x:c r="K51" s="56"/>
+      <x:c r="L51" s="56"/>
+      <x:c r="M51" s="56"/>
+      <x:c r="N51" s="109"/>
+      <x:c r="O51" s="110"/>
+    </x:row>
+    <x:row r="52" spans="3:15" s="57" customFormat="1">
+      <x:c r="C52" s="76">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E39" s="100" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="F39" s="98" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G39" s="92">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H39" s="92"/>
-      <x:c r="I39" s="92"/>
-      <x:c r="J39" s="92"/>
-      <x:c r="K39" s="92"/>
-      <x:c r="L39" s="92"/>
-      <x:c r="M39" s="92"/>
-      <x:c r="N39" s="93"/>
-      <x:c r="O39" s="124"/>
-    </x:row>
-    <x:row r="40" spans="3:15" s="96" customFormat="1">
-      <x:c r="C40" s="123">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D40" s="92" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E40" s="92" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="F40" s="98" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G40" s="92">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="H40" s="92"/>
-      <x:c r="I40" s="92"/>
-      <x:c r="J40" s="92"/>
-      <x:c r="K40" s="92"/>
-      <x:c r="L40" s="92"/>
-      <x:c r="M40" s="92"/>
-      <x:c r="N40" s="93"/>
-      <x:c r="O40" s="124"/>
-    </x:row>
-    <x:row r="41" spans="3:15" s="96" customFormat="1">
-      <x:c r="C41" s="123">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D41" s="92" t="s">
+      <x:c r="D52" s="63" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="E41" s="92" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="F41" s="98" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G41" s="91">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H41" s="92"/>
-      <x:c r="I41" s="92"/>
-      <x:c r="J41" s="92"/>
-      <x:c r="K41" s="92"/>
-      <x:c r="L41" s="92"/>
-      <x:c r="M41" s="92"/>
-      <x:c r="N41" s="94" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="O41" s="125"/>
-    </x:row>
-    <x:row r="42" spans="3:15" s="96" customFormat="1">
-      <x:c r="C42" s="123">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D42" s="92" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E42" s="92" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="F42" s="98" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G42" s="91">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H42" s="92"/>
-      <x:c r="I42" s="92"/>
-      <x:c r="J42" s="92"/>
-      <x:c r="K42" s="92"/>
-      <x:c r="L42" s="92"/>
-      <x:c r="M42" s="92"/>
-      <x:c r="N42" s="94" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="O42" s="125"/>
-    </x:row>
-    <x:row r="43" spans="3:15" s="96" customFormat="1">
-      <x:c r="C43" s="123">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D43" s="92" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E43" s="92" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="F43" s="98" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G43" s="91">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H43" s="92"/>
-      <x:c r="I43" s="92"/>
-      <x:c r="J43" s="92"/>
-      <x:c r="K43" s="92"/>
-      <x:c r="L43" s="92"/>
-      <x:c r="M43" s="92"/>
-      <x:c r="N43" s="94" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="O43" s="125"/>
-    </x:row>
-    <x:row r="44" spans="3:15" s="96" customFormat="1">
-      <x:c r="C44" s="123">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D44" s="92" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="E44" s="92" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F44" s="98" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G44" s="91">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H44" s="92"/>
-      <x:c r="I44" s="92"/>
-      <x:c r="J44" s="92"/>
-      <x:c r="K44" s="92"/>
-      <x:c r="L44" s="92"/>
-      <x:c r="M44" s="92"/>
-      <x:c r="N44" s="94" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="O44" s="125"/>
-    </x:row>
-    <x:row r="45" spans="3:15" s="96" customFormat="1">
-      <x:c r="C45" s="123">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D45" s="92" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="E45" s="92" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="F45" s="98" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G45" s="91">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H45" s="92"/>
-      <x:c r="I45" s="92"/>
-      <x:c r="J45" s="92"/>
-      <x:c r="K45" s="92"/>
-      <x:c r="L45" s="92"/>
-      <x:c r="M45" s="92"/>
-      <x:c r="N45" s="94" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="O45" s="125"/>
-    </x:row>
-    <x:row r="46" spans="3:15" s="96" customFormat="1">
-      <x:c r="C46" s="123">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D46" s="92" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="E46" s="92" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="F46" s="98" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G46" s="91">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H46" s="92"/>
-      <x:c r="I46" s="92"/>
-      <x:c r="J46" s="92"/>
-      <x:c r="K46" s="92"/>
-      <x:c r="L46" s="92"/>
-      <x:c r="M46" s="92"/>
-      <x:c r="N46" s="94" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="O46" s="125"/>
-    </x:row>
-    <x:row r="47" spans="3:15" s="96" customFormat="1">
-      <x:c r="C47" s="123">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D47" s="92" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E47" s="97" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="F47" s="98" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G47" s="92"/>
-      <x:c r="H47" s="92"/>
-      <x:c r="I47" s="92"/>
-      <x:c r="J47" s="92"/>
-      <x:c r="K47" s="92"/>
-      <x:c r="L47" s="92"/>
-      <x:c r="M47" s="92"/>
-      <x:c r="N47" s="93"/>
-      <x:c r="O47" s="124"/>
-    </x:row>
-    <x:row r="48" spans="3:15" s="96" customFormat="1">
-      <x:c r="C48" s="123">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D48" s="92" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E48" s="92" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="F48" s="98" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G48" s="92"/>
-      <x:c r="H48" s="92"/>
-      <x:c r="I48" s="92"/>
-      <x:c r="J48" s="92"/>
-      <x:c r="K48" s="92"/>
-      <x:c r="L48" s="92"/>
-      <x:c r="M48" s="92"/>
-      <x:c r="N48" s="93"/>
-      <x:c r="O48" s="124"/>
-    </x:row>
-    <x:row r="49" spans="3:15" s="96" customFormat="1">
-      <x:c r="C49" s="123">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D49" s="92" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E49" s="92" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="F49" s="98" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G49" s="92"/>
-      <x:c r="H49" s="92"/>
-      <x:c r="I49" s="92"/>
-      <x:c r="J49" s="92"/>
-      <x:c r="K49" s="92"/>
-      <x:c r="L49" s="92"/>
-      <x:c r="M49" s="92"/>
-      <x:c r="N49" s="93"/>
-      <x:c r="O49" s="124"/>
-    </x:row>
-    <x:row r="50" spans="3:15" s="96" customFormat="1">
-      <x:c r="C50" s="123">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D50" s="92" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="E50" s="92" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="F50" s="98" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G50" s="92"/>
-      <x:c r="H50" s="92"/>
-      <x:c r="I50" s="92"/>
-      <x:c r="J50" s="92"/>
-      <x:c r="K50" s="92"/>
-      <x:c r="L50" s="92"/>
-      <x:c r="M50" s="92"/>
-      <x:c r="N50" s="93"/>
-      <x:c r="O50" s="124"/>
-    </x:row>
-    <x:row r="51" spans="3:15" s="96" customFormat="1">
-      <x:c r="C51" s="123">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D51" s="92" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E51" s="92" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="F51" s="98" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G51" s="92"/>
-      <x:c r="H51" s="92"/>
-      <x:c r="I51" s="92"/>
-      <x:c r="J51" s="92"/>
-      <x:c r="K51" s="92"/>
-      <x:c r="L51" s="92"/>
-      <x:c r="M51" s="92"/>
-      <x:c r="N51" s="93"/>
-      <x:c r="O51" s="124"/>
-    </x:row>
-    <x:row r="52" spans="3:15" s="96" customFormat="1">
-      <x:c r="C52" s="127">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D52" s="102" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="E52" s="102" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F52" s="103" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G52" s="102"/>
-      <x:c r="H52" s="102"/>
-      <x:c r="I52" s="102"/>
-      <x:c r="J52" s="102"/>
-      <x:c r="K52" s="102"/>
-      <x:c r="L52" s="102"/>
-      <x:c r="M52" s="102"/>
-      <x:c r="N52" s="104"/>
-      <x:c r="O52" s="128"/>
-    </x:row>
-    <x:row r="53" spans="3:15" s="96" customFormat="1" ht="62.25" customHeight="1">
+      <x:c r="E52" s="63" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F52" s="64" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G52" s="63"/>
+      <x:c r="H52" s="63"/>
+      <x:c r="I52" s="63"/>
+      <x:c r="J52" s="63"/>
+      <x:c r="K52" s="63"/>
+      <x:c r="L52" s="63"/>
+      <x:c r="M52" s="63"/>
+      <x:c r="N52" s="115"/>
+      <x:c r="O52" s="116"/>
+    </x:row>
+    <x:row r="53" spans="3:15" s="57" customFormat="1" ht="62.25" customHeight="1">
       <x:c r="C53" s="35">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D53" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E53" s="16" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F53" s="16" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G53" s="16">
         <x:v>3</x:v>
@@ -4738,94 +4725,96 @@
       <x:c r="K53" s="16"/>
       <x:c r="L53" s="16"/>
       <x:c r="M53" s="17"/>
-      <x:c r="N53" s="140" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="O53" s="139"/>
-    </x:row>
-    <x:row r="54" spans="3:15" s="96" customFormat="1">
-      <x:c r="C54" s="129">
+      <x:c r="N53" s="117" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="O53" s="118"/>
+    </x:row>
+    <x:row r="54" spans="3:15" s="57" customFormat="1">
+      <x:c r="C54" s="77">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D54" s="105" t="s">
+      <x:c r="D54" s="65" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E54" s="65" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="E54" s="105" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="F54" s="106" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G54" s="105"/>
-      <x:c r="H54" s="105"/>
-      <x:c r="I54" s="105"/>
-      <x:c r="J54" s="105"/>
-      <x:c r="K54" s="105"/>
-      <x:c r="L54" s="105"/>
-      <x:c r="M54" s="105"/>
-      <x:c r="N54" s="107"/>
-      <x:c r="O54" s="130"/>
-    </x:row>
-    <x:row r="55" spans="3:15" s="96" customFormat="1">
-      <x:c r="C55" s="131">
+      <x:c r="F54" s="66" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G54" s="65">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="H54" s="65"/>
+      <x:c r="I54" s="65"/>
+      <x:c r="J54" s="65"/>
+      <x:c r="K54" s="65"/>
+      <x:c r="L54" s="65"/>
+      <x:c r="M54" s="65"/>
+      <x:c r="N54" s="119"/>
+      <x:c r="O54" s="120"/>
+    </x:row>
+    <x:row r="55" spans="3:15" s="57" customFormat="1">
+      <x:c r="C55" s="78">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D55" s="108" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E55" s="109" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="F55" s="110" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G55" s="110"/>
-      <x:c r="H55" s="110"/>
-      <x:c r="I55" s="110"/>
-      <x:c r="J55" s="110"/>
-      <x:c r="K55" s="110"/>
-      <x:c r="L55" s="110"/>
-      <x:c r="M55" s="110"/>
-      <x:c r="N55" s="111"/>
-      <x:c r="O55" s="132"/>
-    </x:row>
-    <x:row r="56" spans="3:15" s="96" customFormat="1" ht="16.75">
-      <x:c r="C56" s="133">
+      <x:c r="D55" s="67" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E55" s="68" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F55" s="69" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G55" s="69"/>
+      <x:c r="H55" s="69"/>
+      <x:c r="I55" s="69"/>
+      <x:c r="J55" s="69"/>
+      <x:c r="K55" s="69"/>
+      <x:c r="L55" s="69"/>
+      <x:c r="M55" s="69"/>
+      <x:c r="N55" s="121"/>
+      <x:c r="O55" s="122"/>
+    </x:row>
+    <x:row r="56" spans="3:15" s="57" customFormat="1" ht="16.75">
+      <x:c r="C56" s="79">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D56" s="134" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E56" s="135" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F56" s="136" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G56" s="136"/>
-      <x:c r="H56" s="136"/>
-      <x:c r="I56" s="136"/>
-      <x:c r="J56" s="136"/>
-      <x:c r="K56" s="136"/>
-      <x:c r="L56" s="136"/>
-      <x:c r="M56" s="136"/>
-      <x:c r="N56" s="137"/>
-      <x:c r="O56" s="138"/>
+      <x:c r="D56" s="80" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E56" s="81" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F56" s="82" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G56" s="82"/>
+      <x:c r="H56" s="82"/>
+      <x:c r="I56" s="82"/>
+      <x:c r="J56" s="82"/>
+      <x:c r="K56" s="82"/>
+      <x:c r="L56" s="82"/>
+      <x:c r="M56" s="82"/>
+      <x:c r="N56" s="123"/>
+      <x:c r="O56" s="124"/>
     </x:row>
     <x:row r="57" spans="3:15">
-      <x:c r="C57" s="101"/>
-      <x:c r="D57" s="101"/>
-      <x:c r="E57" s="101"/>
-      <x:c r="F57" s="101"/>
-      <x:c r="G57" s="101"/>
-      <x:c r="H57" s="101"/>
-      <x:c r="I57" s="101"/>
-      <x:c r="J57" s="101"/>
-      <x:c r="K57" s="101"/>
-      <x:c r="L57" s="101"/>
-      <x:c r="M57" s="101"/>
-      <x:c r="N57" s="101"/>
-      <x:c r="O57" s="101"/>
+      <x:c r="C57" s="62"/>
+      <x:c r="D57" s="62"/>
+      <x:c r="E57" s="62"/>
+      <x:c r="F57" s="62"/>
+      <x:c r="G57" s="62"/>
+      <x:c r="H57" s="62"/>
+      <x:c r="I57" s="62"/>
+      <x:c r="J57" s="62"/>
+      <x:c r="K57" s="62"/>
+      <x:c r="L57" s="62"/>
+      <x:c r="M57" s="62"/>
+      <x:c r="N57" s="62"/>
+      <x:c r="O57" s="62"/>
     </x:row>
     <x:row r="60" spans="3:15">
       <x:c r="C60" s="21"/>
@@ -4858,220 +4847,220 @@
       <x:c r="O61" s="37"/>
     </x:row>
     <x:row r="62" spans="3:15" ht="21">
-      <x:c r="C62" s="55" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D62" s="56"/>
-      <x:c r="E62" s="56"/>
-      <x:c r="F62" s="56"/>
-      <x:c r="G62" s="56"/>
-      <x:c r="H62" s="56"/>
-      <x:c r="I62" s="56"/>
-      <x:c r="J62" s="56"/>
-      <x:c r="K62" s="56"/>
-      <x:c r="L62" s="56"/>
-      <x:c r="M62" s="56"/>
-      <x:c r="N62" s="56"/>
-      <x:c r="O62" s="57"/>
+      <x:c r="C62" s="83" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D62" s="84"/>
+      <x:c r="E62" s="84"/>
+      <x:c r="F62" s="84"/>
+      <x:c r="G62" s="84"/>
+      <x:c r="H62" s="84"/>
+      <x:c r="I62" s="84"/>
+      <x:c r="J62" s="84"/>
+      <x:c r="K62" s="84"/>
+      <x:c r="L62" s="84"/>
+      <x:c r="M62" s="84"/>
+      <x:c r="N62" s="84"/>
+      <x:c r="O62" s="85"/>
     </x:row>
     <x:row r="63" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C63" s="58" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D63" s="59"/>
-      <x:c r="E63" s="60" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F63" s="61"/>
-      <x:c r="G63" s="61"/>
-      <x:c r="H63" s="61"/>
-      <x:c r="I63" s="61"/>
-      <x:c r="J63" s="61"/>
-      <x:c r="K63" s="61"/>
-      <x:c r="L63" s="61"/>
-      <x:c r="M63" s="59"/>
+      <x:c r="C63" s="86" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D63" s="87"/>
+      <x:c r="E63" s="88" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F63" s="89"/>
+      <x:c r="G63" s="89"/>
+      <x:c r="H63" s="89"/>
+      <x:c r="I63" s="89"/>
+      <x:c r="J63" s="89"/>
+      <x:c r="K63" s="89"/>
+      <x:c r="L63" s="89"/>
+      <x:c r="M63" s="87"/>
       <x:c r="N63" s="41" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O63" s="42"/>
     </x:row>
     <x:row r="64" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C64" s="58" t="s">
+      <x:c r="C64" s="86" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D64" s="87"/>
+      <x:c r="E64" s="90" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F64" s="89"/>
+      <x:c r="G64" s="89"/>
+      <x:c r="H64" s="89"/>
+      <x:c r="I64" s="89"/>
+      <x:c r="J64" s="89"/>
+      <x:c r="K64" s="89"/>
+      <x:c r="L64" s="89"/>
+      <x:c r="M64" s="87"/>
+      <x:c r="N64" s="41" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O64" s="42"/>
+    </x:row>
+    <x:row r="65" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C65" s="86" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="D64" s="59"/>
-      <x:c r="E64" s="62" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="F64" s="61"/>
-      <x:c r="G64" s="61"/>
-      <x:c r="H64" s="61"/>
-      <x:c r="I64" s="61"/>
-      <x:c r="J64" s="61"/>
-      <x:c r="K64" s="61"/>
-      <x:c r="L64" s="61"/>
-      <x:c r="M64" s="59"/>
-      <x:c r="N64" s="41" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="O64" s="42"/>
-    </x:row>
-    <x:row r="65" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C65" s="58" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D65" s="59"/>
-      <x:c r="E65" s="60"/>
-      <x:c r="F65" s="61"/>
-      <x:c r="G65" s="61"/>
-      <x:c r="H65" s="61"/>
-      <x:c r="I65" s="61"/>
-      <x:c r="J65" s="61"/>
-      <x:c r="K65" s="61"/>
-      <x:c r="L65" s="61"/>
-      <x:c r="M65" s="59"/>
+      <x:c r="D65" s="87"/>
+      <x:c r="E65" s="88"/>
+      <x:c r="F65" s="89"/>
+      <x:c r="G65" s="89"/>
+      <x:c r="H65" s="89"/>
+      <x:c r="I65" s="89"/>
+      <x:c r="J65" s="89"/>
+      <x:c r="K65" s="89"/>
+      <x:c r="L65" s="89"/>
+      <x:c r="M65" s="87"/>
       <x:c r="N65" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O65" s="4" t="s">
-        <x:v>133</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C66" s="58" t="s">
+      <x:c r="C66" s="86" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D66" s="87"/>
+      <x:c r="E66" s="88" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D66" s="59"/>
-      <x:c r="E66" s="60" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="F66" s="61"/>
-      <x:c r="G66" s="61"/>
-      <x:c r="H66" s="61"/>
-      <x:c r="I66" s="61"/>
-      <x:c r="J66" s="61"/>
-      <x:c r="K66" s="61"/>
-      <x:c r="L66" s="61"/>
-      <x:c r="M66" s="59"/>
+      <x:c r="F66" s="89"/>
+      <x:c r="G66" s="89"/>
+      <x:c r="H66" s="89"/>
+      <x:c r="I66" s="89"/>
+      <x:c r="J66" s="89"/>
+      <x:c r="K66" s="89"/>
+      <x:c r="L66" s="89"/>
+      <x:c r="M66" s="87"/>
       <x:c r="N66" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="O66" s="5"/>
     </x:row>
     <x:row r="67" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C67" s="58" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D67" s="59"/>
-      <x:c r="E67" s="63" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="F67" s="64"/>
-      <x:c r="G67" s="64"/>
-      <x:c r="H67" s="64"/>
-      <x:c r="I67" s="64"/>
-      <x:c r="J67" s="64"/>
-      <x:c r="K67" s="64"/>
-      <x:c r="L67" s="64"/>
-      <x:c r="M67" s="64"/>
-      <x:c r="N67" s="64"/>
-      <x:c r="O67" s="65"/>
+      <x:c r="C67" s="86" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D67" s="87"/>
+      <x:c r="E67" s="91" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F67" s="92"/>
+      <x:c r="G67" s="92"/>
+      <x:c r="H67" s="92"/>
+      <x:c r="I67" s="92"/>
+      <x:c r="J67" s="92"/>
+      <x:c r="K67" s="92"/>
+      <x:c r="L67" s="92"/>
+      <x:c r="M67" s="92"/>
+      <x:c r="N67" s="92"/>
+      <x:c r="O67" s="93"/>
     </x:row>
     <x:row r="68" spans="3:15" ht="26.35000000000000142109">
       <x:c r="C68" s="28" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D68" s="29" t="s">
-        <x:v>43</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E68" s="29" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F68" s="29" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G68" s="29" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H68" s="29" t="s">
-        <x:v>54</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I68" s="29" t="s">
-        <x:v>63</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J68" s="29" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K68" s="29" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L68" s="29" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M68" s="29" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="N68" s="75" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="O68" s="76"/>
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="N68" s="125" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="O68" s="126"/>
     </x:row>
     <x:row r="69" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C69" s="30">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D69" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E69" s="31" t="s">
-        <x:v>38</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F69" s="31" t="s">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G69" s="31"/>
       <x:c r="H69" s="32" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I69" s="32" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J69" s="32" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K69" s="31" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L69" s="32"/>
       <x:c r="M69" s="32"/>
-      <x:c r="N69" s="77"/>
-      <x:c r="O69" s="78"/>
+      <x:c r="N69" s="127"/>
+      <x:c r="O69" s="128"/>
     </x:row>
     <x:row r="70" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C70" s="33">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D70" s="16" t="s">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E70" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F70" s="9" t="s">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G70" s="9"/>
       <x:c r="H70" s="9" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I70" s="9" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J70" s="11" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K70" s="9" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L70" s="10"/>
       <x:c r="M70" s="10"/>
@@ -5083,69 +5072,69 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D71" s="9" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E71" s="9" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F71" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G71" s="10"/>
       <x:c r="H71" s="9"/>
       <x:c r="I71" s="9"/>
       <x:c r="J71" s="11"/>
       <x:c r="K71" s="9" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="L71" s="11"/>
       <x:c r="M71" s="10" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="N71" s="79" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="O71" s="80"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N71" s="129" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="O71" s="130"/>
     </x:row>
     <x:row r="72" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C72" s="34">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D72" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E72" s="13" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F72" s="13" t="s">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G72" s="13"/>
       <x:c r="H72" s="13"/>
       <x:c r="I72" s="13"/>
       <x:c r="J72" s="14"/>
       <x:c r="K72" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="L72" s="14"/>
       <x:c r="M72" s="14" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N72" s="81"/>
-      <x:c r="O72" s="82"/>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="N72" s="131"/>
+      <x:c r="O72" s="132"/>
     </x:row>
     <x:row r="73" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C73" s="35">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D73" s="13" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E73" s="16" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F73" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G73" s="16">
         <x:v>4000</x:v>
@@ -5154,27 +5143,27 @@
       <x:c r="I73" s="16"/>
       <x:c r="J73" s="16"/>
       <x:c r="K73" s="16" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="L73" s="16"/>
       <x:c r="M73" s="17" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="N73" s="83"/>
-      <x:c r="O73" s="84"/>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="N73" s="133"/>
+      <x:c r="O73" s="134"/>
     </x:row>
     <x:row r="74" spans="3:15" ht="62.25" customHeight="1">
       <x:c r="C74" s="35">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D74" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E74" s="16" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F74" s="16" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G74" s="16">
         <x:v>3</x:v>
@@ -5185,267 +5174,267 @@
       <x:c r="K74" s="16"/>
       <x:c r="L74" s="16"/>
       <x:c r="M74" s="17"/>
-      <x:c r="N74" s="140" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="O74" s="139"/>
+      <x:c r="N74" s="117" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="O74" s="118"/>
     </x:row>
     <x:row r="75" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C75" s="35">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D75" s="13" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E75" s="16" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F75" s="16" t="s">
-        <x:v>85</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G75" s="16"/>
       <x:c r="H75" s="16"/>
       <x:c r="I75" s="16"/>
       <x:c r="J75" s="16"/>
       <x:c r="K75" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L75" s="16"/>
       <x:c r="M75" s="17" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="N75" s="83"/>
-      <x:c r="O75" s="84"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N75" s="133"/>
+      <x:c r="O75" s="134"/>
     </x:row>
     <x:row r="76" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C76" s="47">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D76" s="48" t="s">
-        <x:v>41</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E76" s="48" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F76" s="48" t="s">
-        <x:v>85</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G76" s="48"/>
       <x:c r="H76" s="48"/>
       <x:c r="I76" s="48"/>
       <x:c r="J76" s="48"/>
       <x:c r="K76" s="48" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="L76" s="48"/>
       <x:c r="M76" s="48" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="N76" s="85"/>
-      <x:c r="O76" s="86"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N76" s="135"/>
+      <x:c r="O76" s="136"/>
     </x:row>
     <x:row r="80" spans="3:15" ht="21">
-      <x:c r="C80" s="55" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D80" s="56"/>
-      <x:c r="E80" s="56"/>
-      <x:c r="F80" s="56"/>
-      <x:c r="G80" s="56"/>
-      <x:c r="H80" s="56"/>
-      <x:c r="I80" s="56"/>
-      <x:c r="J80" s="56"/>
-      <x:c r="K80" s="56"/>
-      <x:c r="L80" s="56"/>
-      <x:c r="M80" s="56"/>
-      <x:c r="N80" s="56"/>
-      <x:c r="O80" s="57"/>
+      <x:c r="C80" s="83" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D80" s="84"/>
+      <x:c r="E80" s="84"/>
+      <x:c r="F80" s="84"/>
+      <x:c r="G80" s="84"/>
+      <x:c r="H80" s="84"/>
+      <x:c r="I80" s="84"/>
+      <x:c r="J80" s="84"/>
+      <x:c r="K80" s="84"/>
+      <x:c r="L80" s="84"/>
+      <x:c r="M80" s="84"/>
+      <x:c r="N80" s="84"/>
+      <x:c r="O80" s="85"/>
     </x:row>
     <x:row r="81" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C81" s="58" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D81" s="59"/>
-      <x:c r="E81" s="60" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F81" s="61"/>
-      <x:c r="G81" s="61"/>
-      <x:c r="H81" s="61"/>
-      <x:c r="I81" s="61"/>
-      <x:c r="J81" s="61"/>
-      <x:c r="K81" s="61"/>
-      <x:c r="L81" s="61"/>
-      <x:c r="M81" s="59"/>
+      <x:c r="C81" s="86" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D81" s="87"/>
+      <x:c r="E81" s="88" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F81" s="89"/>
+      <x:c r="G81" s="89"/>
+      <x:c r="H81" s="89"/>
+      <x:c r="I81" s="89"/>
+      <x:c r="J81" s="89"/>
+      <x:c r="K81" s="89"/>
+      <x:c r="L81" s="89"/>
+      <x:c r="M81" s="87"/>
       <x:c r="N81" s="41" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O81" s="42"/>
     </x:row>
     <x:row r="82" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C82" s="58" t="s">
+      <x:c r="C82" s="86" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D82" s="87"/>
+      <x:c r="E82" s="90" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F82" s="89"/>
+      <x:c r="G82" s="89"/>
+      <x:c r="H82" s="89"/>
+      <x:c r="I82" s="89"/>
+      <x:c r="J82" s="89"/>
+      <x:c r="K82" s="89"/>
+      <x:c r="L82" s="89"/>
+      <x:c r="M82" s="87"/>
+      <x:c r="N82" s="41" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O82" s="42"/>
+    </x:row>
+    <x:row r="83" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C83" s="86" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="D82" s="59"/>
-      <x:c r="E82" s="62" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="F82" s="61"/>
-      <x:c r="G82" s="61"/>
-      <x:c r="H82" s="61"/>
-      <x:c r="I82" s="61"/>
-      <x:c r="J82" s="61"/>
-      <x:c r="K82" s="61"/>
-      <x:c r="L82" s="61"/>
-      <x:c r="M82" s="59"/>
-      <x:c r="N82" s="41" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="O82" s="42"/>
-    </x:row>
-    <x:row r="83" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C83" s="58" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D83" s="59"/>
-      <x:c r="E83" s="60"/>
-      <x:c r="F83" s="61"/>
-      <x:c r="G83" s="61"/>
-      <x:c r="H83" s="61"/>
-      <x:c r="I83" s="61"/>
-      <x:c r="J83" s="61"/>
-      <x:c r="K83" s="61"/>
-      <x:c r="L83" s="61"/>
-      <x:c r="M83" s="59"/>
+      <x:c r="D83" s="87"/>
+      <x:c r="E83" s="88"/>
+      <x:c r="F83" s="89"/>
+      <x:c r="G83" s="89"/>
+      <x:c r="H83" s="89"/>
+      <x:c r="I83" s="89"/>
+      <x:c r="J83" s="89"/>
+      <x:c r="K83" s="89"/>
+      <x:c r="L83" s="89"/>
+      <x:c r="M83" s="87"/>
       <x:c r="N83" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O83" s="54" t="s">
-        <x:v>131</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C84" s="58" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D84" s="59"/>
-      <x:c r="E84" s="60" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F84" s="61"/>
-      <x:c r="G84" s="61"/>
-      <x:c r="H84" s="61"/>
-      <x:c r="I84" s="61"/>
-      <x:c r="J84" s="61"/>
-      <x:c r="K84" s="61"/>
-      <x:c r="L84" s="61"/>
-      <x:c r="M84" s="59"/>
+      <x:c r="C84" s="86" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D84" s="87"/>
+      <x:c r="E84" s="88" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F84" s="89"/>
+      <x:c r="G84" s="89"/>
+      <x:c r="H84" s="89"/>
+      <x:c r="I84" s="89"/>
+      <x:c r="J84" s="89"/>
+      <x:c r="K84" s="89"/>
+      <x:c r="L84" s="89"/>
+      <x:c r="M84" s="87"/>
       <x:c r="N84" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="O84" s="5"/>
     </x:row>
     <x:row r="85" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C85" s="58" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D85" s="59"/>
-      <x:c r="E85" s="63"/>
-      <x:c r="F85" s="64"/>
-      <x:c r="G85" s="64"/>
-      <x:c r="H85" s="64"/>
-      <x:c r="I85" s="64"/>
-      <x:c r="J85" s="64"/>
-      <x:c r="K85" s="64"/>
-      <x:c r="L85" s="64"/>
-      <x:c r="M85" s="64"/>
-      <x:c r="N85" s="64"/>
-      <x:c r="O85" s="65"/>
+      <x:c r="C85" s="86" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D85" s="87"/>
+      <x:c r="E85" s="91"/>
+      <x:c r="F85" s="92"/>
+      <x:c r="G85" s="92"/>
+      <x:c r="H85" s="92"/>
+      <x:c r="I85" s="92"/>
+      <x:c r="J85" s="92"/>
+      <x:c r="K85" s="92"/>
+      <x:c r="L85" s="92"/>
+      <x:c r="M85" s="92"/>
+      <x:c r="N85" s="92"/>
+      <x:c r="O85" s="93"/>
     </x:row>
     <x:row r="86" spans="3:15" ht="26.75">
       <x:c r="C86" s="43" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D86" s="44" t="s">
-        <x:v>43</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E86" s="44" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F86" s="44" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G86" s="29" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H86" s="29" t="s">
-        <x:v>54</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I86" s="29" t="s">
-        <x:v>63</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J86" s="29" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K86" s="29" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L86" s="29" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M86" s="29" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="N86" s="75" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="O86" s="76"/>
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="N86" s="125" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="O86" s="126"/>
     </x:row>
     <x:row r="87" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C87" s="30">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D87" s="45" t="s">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E87" s="46" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F87" s="31" t="s">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G87" s="31"/>
       <x:c r="H87" s="32" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I87" s="32" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J87" s="32" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K87" s="31" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L87" s="32"/>
       <x:c r="M87" s="32"/>
-      <x:c r="N87" s="87" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="O87" s="88"/>
+      <x:c r="N87" s="137" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="O87" s="138"/>
     </x:row>
     <x:row r="88" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C88" s="33">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D88" s="49" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E88" s="50" t="s">
-        <x:v>71</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F88" s="9" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G88" s="9">
         <x:v>1</x:v>
@@ -5454,27 +5443,27 @@
       <x:c r="I88" s="9"/>
       <x:c r="J88" s="11"/>
       <x:c r="K88" s="9" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="L88" s="10"/>
       <x:c r="M88" s="10"/>
-      <x:c r="N88" s="89" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="O88" s="90"/>
-    </x:row>
-    <x:row r="89" spans="3:15" s="96" customFormat="1" ht="62.25" customHeight="1">
+      <x:c r="N88" s="139" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="O88" s="140"/>
+    </x:row>
+    <x:row r="89" spans="3:15" s="57" customFormat="1" ht="62.25" customHeight="1">
       <x:c r="C89" s="35">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D89" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E89" s="16" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F89" s="16" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G89" s="16">
         <x:v>3</x:v>
@@ -5485,68 +5474,68 @@
       <x:c r="K89" s="16"/>
       <x:c r="L89" s="16"/>
       <x:c r="M89" s="17"/>
-      <x:c r="N89" s="141" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="O89" s="139"/>
+      <x:c r="N89" s="117" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="O89" s="118"/>
     </x:row>
     <x:row r="90" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C90" s="35">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D90" s="13" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E90" s="16" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F90" s="16" t="s">
-        <x:v>85</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G90" s="16"/>
       <x:c r="H90" s="16"/>
       <x:c r="I90" s="16"/>
       <x:c r="J90" s="16"/>
       <x:c r="K90" s="16" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L90" s="16"/>
       <x:c r="M90" s="17" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="N90" s="83" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="O90" s="84"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N90" s="133" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="O90" s="134"/>
     </x:row>
     <x:row r="91" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C91" s="47">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D91" s="48" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E91" s="48" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F91" s="48" t="s">
-        <x:v>85</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G91" s="48"/>
       <x:c r="H91" s="48"/>
       <x:c r="I91" s="48"/>
       <x:c r="J91" s="48"/>
       <x:c r="K91" s="48" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="L91" s="48"/>
       <x:c r="M91" s="51" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="N91" s="85" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O91" s="86"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N91" s="135" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="O91" s="136"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="94">

--- a/프로젝트 문서/설계 문서/테이블 정의서/테이블 정의서 (240902 수정).xlsx
+++ b/프로젝트 문서/설계 문서/테이블 정의서/테이블 정의서 (240902 수정).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11325" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="21345" windowHeight="8625" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="135">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="133">
   <x:si>
     <x:t>홍대 카페 맞춤 추천 웹서비스</x:t>
   </x:si>
   <x:si>
-    <x:t>CURRENT_TIMESTAMP</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">	사용자 생년월일 (YYMMDD)</x:t>
   </x:si>
   <x:si>
@@ -43,9 +40,6 @@
   </x:si>
   <x:si>
     <x:t>영문 컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FALSE</x:t>
   </x:si>
   <x:si>
     <x:t>INDEX</x:t>
@@ -85,9 +79,6 @@
     <x:t>전화번호</x:t>
   </x:si>
   <x:si>
-    <x:t>BOOLEAN</x:t>
-  </x:si>
-  <x:si>
     <x:t>테이블 ID</x:t>
   </x:si>
   <x:si>
@@ -161,9 +152,6 @@
   </x:si>
   <x:si>
     <x:t>사용자 고유 번호 (사용자 정보 FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아요 여부 (TRUE, FALSE)</x:t>
   </x:si>
   <x:si>
     <x:t>이메일</x:t>
@@ -430,6 +418,12 @@
   </x:si>
   <x:si>
     <x:t>NOW()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y: 좋아요</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1433,7 +1427,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="141">
+  <x:cellXfs count="142">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -3193,6 +3187,19 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -3522,8 +3529,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B5:O91"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="N37" activeCellId="0" sqref="N37:O37"/>
+    <x:sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="E82" activeCellId="0" sqref="E82:M82"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
@@ -3540,7 +3547,7 @@
   <x:sheetData>
     <x:row r="5" spans="3:15" ht="21">
       <x:c r="C5" s="83" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D5" s="84"/>
       <x:c r="E5" s="84"/>
@@ -3558,7 +3565,7 @@
     <x:row r="6" spans="2:15" ht="22.05000000000000071054" customHeight="1">
       <x:c r="B6" s="1"/>
       <x:c r="C6" s="86" t="s">
-        <x:v>80</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D6" s="87"/>
       <x:c r="E6" s="88" t="s">
@@ -3573,17 +3580,17 @@
       <x:c r="L6" s="89"/>
       <x:c r="M6" s="87"/>
       <x:c r="N6" s="41" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O6" s="42"/>
     </x:row>
     <x:row r="7" spans="3:15" ht="17.80000000000000071054" customHeight="1">
       <x:c r="C7" s="86" t="s">
-        <x:v>76</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D7" s="87"/>
       <x:c r="E7" s="90" t="s">
-        <x:v>82</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F7" s="89"/>
       <x:c r="G7" s="89"/>
@@ -3594,13 +3601,13 @@
       <x:c r="L7" s="89"/>
       <x:c r="M7" s="87"/>
       <x:c r="N7" s="41" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O7" s="42"/>
     </x:row>
     <x:row r="8" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C8" s="86" t="s">
-        <x:v>79</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D8" s="87"/>
       <x:c r="E8" s="88"/>
@@ -3613,19 +3620,19 @@
       <x:c r="L8" s="89"/>
       <x:c r="M8" s="87"/>
       <x:c r="N8" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O8" s="4" t="s">
-        <x:v>130</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C9" s="86" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D9" s="87"/>
       <x:c r="E9" s="88" t="s">
-        <x:v>63</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F9" s="89"/>
       <x:c r="G9" s="89"/>
@@ -3636,17 +3643,17 @@
       <x:c r="L9" s="89"/>
       <x:c r="M9" s="87"/>
       <x:c r="N9" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O9" s="5"/>
     </x:row>
     <x:row r="10" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C10" s="86" t="s">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D10" s="87"/>
       <x:c r="E10" s="91" t="s">
-        <x:v>75</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F10" s="92"/>
       <x:c r="G10" s="92"/>
@@ -3661,40 +3668,40 @@
     </x:row>
     <x:row r="11" spans="3:15" ht="26.35000000000000142109">
       <x:c r="C11" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F11" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G11" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H11" s="7" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I11" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J11" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F11" s="7" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="G11" s="7" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H11" s="7" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I11" s="7" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="J11" s="7" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="K11" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M11" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N11" s="94" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O11" s="95"/>
     </x:row>
@@ -3703,33 +3710,33 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D12" s="25" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E12" s="25" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F12" s="25" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G12" s="9"/>
       <x:c r="H12" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I12" s="10"/>
       <x:c r="J12" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K12" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L12" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M12" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N12" s="96" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O12" s="95"/>
     </x:row>
@@ -3738,13 +3745,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D13" s="25" t="s">
-        <x:v>48</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E13" s="25" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F13" s="25" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G13" s="9">
         <x:v>100</x:v>
@@ -3753,10 +3760,10 @@
       <x:c r="I13" s="9"/>
       <x:c r="J13" s="11"/>
       <x:c r="K13" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L13" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M13" s="10"/>
       <x:c r="N13" s="24"/>
@@ -3767,13 +3774,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D14" s="25" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E14" s="25" t="s">
-        <x:v>56</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F14" s="25" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G14" s="10">
         <x:v>300</x:v>
@@ -3782,7 +3789,7 @@
       <x:c r="I14" s="9"/>
       <x:c r="J14" s="11"/>
       <x:c r="K14" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L14" s="11"/>
       <x:c r="M14" s="10"/>
@@ -3794,13 +3801,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D15" s="27" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E15" s="27" t="s">
-        <x:v>83</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F15" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G15" s="13">
         <x:v>50</x:v>
@@ -3809,7 +3816,7 @@
       <x:c r="I15" s="13"/>
       <x:c r="J15" s="14"/>
       <x:c r="K15" s="13" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L15" s="14"/>
       <x:c r="M15" s="14"/>
@@ -3821,13 +3828,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D16" s="26" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E16" s="26" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F16" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G16" s="16">
         <x:v>20</x:v>
@@ -3836,7 +3843,7 @@
       <x:c r="I16" s="16"/>
       <x:c r="J16" s="16"/>
       <x:c r="K16" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L16" s="16"/>
       <x:c r="M16" s="17"/>
@@ -3848,13 +3855,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D17" s="26" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E17" s="26" t="s">
-        <x:v>66</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F17" s="26" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G17" s="16">
         <x:v>6</x:v>
@@ -3863,12 +3870,12 @@
       <x:c r="I17" s="16"/>
       <x:c r="J17" s="17"/>
       <x:c r="K17" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L17" s="17"/>
       <x:c r="M17" s="17"/>
       <x:c r="N17" s="99" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O17" s="100"/>
     </x:row>
@@ -3877,13 +3884,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="26" t="s">
-        <x:v>55</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E18" s="26" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F18" s="26" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G18" s="16">
         <x:v>1</x:v>
@@ -3892,12 +3899,12 @@
       <x:c r="I18" s="16"/>
       <x:c r="J18" s="17"/>
       <x:c r="K18" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L18" s="17"/>
       <x:c r="M18" s="17"/>
       <x:c r="N18" s="99" t="s">
-        <x:v>100</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O18" s="100"/>
     </x:row>
@@ -3906,27 +3913,27 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D19" s="26" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E19" s="26" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F19" s="26" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G19" s="16"/>
       <x:c r="H19" s="16"/>
       <x:c r="I19" s="16"/>
       <x:c r="J19" s="17"/>
       <x:c r="K19" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L19" s="17"/>
       <x:c r="M19" s="17" t="s">
-        <x:v>134</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="N19" s="99" t="s">
-        <x:v>85</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O19" s="100"/>
     </x:row>
@@ -3935,33 +3942,33 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="38" t="s">
-        <x:v>41</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E20" s="38" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F20" s="38" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G20" s="19"/>
       <x:c r="H20" s="19"/>
       <x:c r="I20" s="19"/>
       <x:c r="J20" s="20"/>
       <x:c r="K20" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="L20" s="20"/>
       <x:c r="M20" s="20" t="s">
-        <x:v>134</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="N20" s="101" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O20" s="102"/>
     </x:row>
     <x:row r="23" spans="3:15" ht="21">
       <x:c r="C23" s="103" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D23" s="104"/>
       <x:c r="E23" s="104"/>
@@ -3978,7 +3985,7 @@
     </x:row>
     <x:row r="24" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C24" s="106" t="s">
-        <x:v>80</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D24" s="87"/>
       <x:c r="E24" s="88" t="s">
@@ -3993,17 +4000,17 @@
       <x:c r="L24" s="89"/>
       <x:c r="M24" s="87"/>
       <x:c r="N24" s="41" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O24" s="70"/>
     </x:row>
     <x:row r="25" spans="3:15" ht="17.80000000000000071054" customHeight="1">
       <x:c r="C25" s="106" t="s">
-        <x:v>76</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D25" s="87"/>
       <x:c r="E25" s="90" t="s">
-        <x:v>82</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F25" s="89"/>
       <x:c r="G25" s="89"/>
@@ -4014,13 +4021,13 @@
       <x:c r="L25" s="89"/>
       <x:c r="M25" s="87"/>
       <x:c r="N25" s="41" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O25" s="70"/>
     </x:row>
     <x:row r="26" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C26" s="106" t="s">
-        <x:v>79</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D26" s="87"/>
       <x:c r="E26" s="88"/>
@@ -4033,19 +4040,19 @@
       <x:c r="L26" s="89"/>
       <x:c r="M26" s="87"/>
       <x:c r="N26" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O26" s="71" t="s">
-        <x:v>115</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C27" s="106" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D27" s="87"/>
       <x:c r="E27" s="88" t="s">
-        <x:v>54</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F27" s="89"/>
       <x:c r="G27" s="89"/>
@@ -4056,17 +4063,17 @@
       <x:c r="L27" s="89"/>
       <x:c r="M27" s="87"/>
       <x:c r="N27" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O27" s="72"/>
     </x:row>
     <x:row r="28" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C28" s="106" t="s">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D28" s="87"/>
       <x:c r="E28" s="91" t="s">
-        <x:v>86</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F28" s="92"/>
       <x:c r="G28" s="92"/>
@@ -4081,40 +4088,40 @@
     </x:row>
     <x:row r="29" spans="3:15" ht="26.35000000000000142109">
       <x:c r="C29" s="73" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D29" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E29" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F29" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G29" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H29" s="7" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I29" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J29" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F29" s="7" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="G29" s="7" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H29" s="7" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I29" s="7" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="J29" s="7" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="K29" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L29" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M29" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N29" s="94" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O29" s="108"/>
     </x:row>
@@ -4123,33 +4130,33 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D30" s="25" t="s">
-        <x:v>43</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E30" s="25" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F30" s="25" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G30" s="9"/>
       <x:c r="H30" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I30" s="10"/>
       <x:c r="J30" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K30" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L30" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M30" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N30" s="96" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O30" s="108"/>
     </x:row>
@@ -4158,13 +4165,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D31" s="25" t="s">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E31" s="25" t="s">
-        <x:v>72</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F31" s="25" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G31" s="9">
         <x:v>100</x:v>
@@ -4173,7 +4180,7 @@
       <x:c r="I31" s="9"/>
       <x:c r="J31" s="11"/>
       <x:c r="K31" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L31" s="10"/>
       <x:c r="M31" s="10"/>
@@ -4185,13 +4192,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D32" s="56" t="s">
-        <x:v>117</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E32" s="56" t="s">
-        <x:v>117</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F32" s="59" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G32" s="56">
         <x:v>300</x:v>
@@ -4199,7 +4206,9 @@
       <x:c r="H32" s="56"/>
       <x:c r="I32" s="56"/>
       <x:c r="J32" s="56"/>
-      <x:c r="K32" s="56"/>
+      <x:c r="K32" s="56" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="L32" s="56"/>
       <x:c r="M32" s="56"/>
       <x:c r="N32" s="109"/>
@@ -4210,13 +4219,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D33" s="60" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E33" s="61" t="s">
-        <x:v>68</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F33" s="59" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G33" s="55">
         <x:v>1</x:v>
@@ -4224,11 +4233,13 @@
       <x:c r="H33" s="56"/>
       <x:c r="I33" s="56"/>
       <x:c r="J33" s="56"/>
-      <x:c r="K33" s="56"/>
+      <x:c r="K33" s="56" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="L33" s="56"/>
       <x:c r="M33" s="56"/>
       <x:c r="N33" s="111" t="s">
-        <x:v>103</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="O33" s="112"/>
     </x:row>
@@ -4237,13 +4248,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D34" s="56" t="s">
-        <x:v>97</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E34" s="58" t="s">
-        <x:v>70</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F34" s="59" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G34" s="56">
         <x:v>100</x:v>
@@ -4251,7 +4262,9 @@
       <x:c r="H34" s="56"/>
       <x:c r="I34" s="56"/>
       <x:c r="J34" s="56"/>
-      <x:c r="K34" s="56"/>
+      <x:c r="K34" s="56" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="L34" s="56"/>
       <x:c r="M34" s="56"/>
       <x:c r="N34" s="111"/>
@@ -4262,13 +4275,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D35" s="56" t="s">
-        <x:v>120</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E35" s="58" t="s">
-        <x:v>119</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F35" s="59" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G35" s="56">
         <x:v>100</x:v>
@@ -4276,7 +4289,9 @@
       <x:c r="H35" s="56"/>
       <x:c r="I35" s="56"/>
       <x:c r="J35" s="56"/>
-      <x:c r="K35" s="56"/>
+      <x:c r="K35" s="56" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="L35" s="56"/>
       <x:c r="M35" s="56"/>
       <x:c r="N35" s="109"/>
@@ -4287,19 +4302,21 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D36" s="58" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E36" s="58" t="s">
-        <x:v>104</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F36" s="59" t="s">
-        <x:v>133</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G36" s="56"/>
       <x:c r="H36" s="56"/>
       <x:c r="I36" s="56"/>
       <x:c r="J36" s="56"/>
-      <x:c r="K36" s="56"/>
+      <x:c r="K36" s="56" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="L36" s="56"/>
       <x:c r="M36" s="56"/>
       <x:c r="N36" s="113"/>
@@ -4310,19 +4327,21 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D37" s="58" t="s">
-        <x:v>93</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E37" s="58" t="s">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F37" s="59" t="s">
-        <x:v>133</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G37" s="56"/>
       <x:c r="H37" s="56"/>
       <x:c r="I37" s="56"/>
       <x:c r="J37" s="56"/>
-      <x:c r="K37" s="56"/>
+      <x:c r="K37" s="56" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="L37" s="56"/>
       <x:c r="M37" s="56"/>
       <x:c r="N37" s="113"/>
@@ -4333,13 +4352,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D38" s="56" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E38" s="61" t="s">
-        <x:v>69</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F38" s="59" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G38" s="56">
         <x:v>30</x:v>
@@ -4358,13 +4377,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D39" s="56" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E39" s="61" t="s">
-        <x:v>78</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F39" s="59" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G39" s="56">
         <x:v>15</x:v>
@@ -4383,13 +4402,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D40" s="56" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E40" s="56" t="s">
-        <x:v>74</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F40" s="59" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G40" s="56">
         <x:v>100</x:v>
@@ -4408,13 +4427,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D41" s="56" t="s">
-        <x:v>126</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="56" t="s">
-        <x:v>122</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F41" s="59" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G41" s="55">
         <x:v>1</x:v>
@@ -4426,7 +4445,7 @@
       <x:c r="L41" s="56"/>
       <x:c r="M41" s="56"/>
       <x:c r="N41" s="111" t="s">
-        <x:v>102</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="O41" s="112"/>
     </x:row>
@@ -4435,13 +4454,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D42" s="56" t="s">
-        <x:v>121</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E42" s="56" t="s">
-        <x:v>105</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F42" s="59" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G42" s="55">
         <x:v>1</x:v>
@@ -4453,7 +4472,7 @@
       <x:c r="L42" s="56"/>
       <x:c r="M42" s="56"/>
       <x:c r="N42" s="111" t="s">
-        <x:v>102</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="O42" s="112"/>
     </x:row>
@@ -4462,13 +4481,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D43" s="56" t="s">
-        <x:v>94</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E43" s="56" t="s">
-        <x:v>114</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F43" s="59" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G43" s="55">
         <x:v>1</x:v>
@@ -4480,7 +4499,7 @@
       <x:c r="L43" s="56"/>
       <x:c r="M43" s="56"/>
       <x:c r="N43" s="111" t="s">
-        <x:v>102</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="O43" s="112"/>
     </x:row>
@@ -4489,13 +4508,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D44" s="56" t="s">
-        <x:v>116</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E44" s="56" t="s">
-        <x:v>106</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F44" s="59" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G44" s="55">
         <x:v>1</x:v>
@@ -4507,7 +4526,7 @@
       <x:c r="L44" s="56"/>
       <x:c r="M44" s="56"/>
       <x:c r="N44" s="111" t="s">
-        <x:v>102</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="O44" s="112"/>
     </x:row>
@@ -4516,13 +4535,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D45" s="56" t="s">
-        <x:v>92</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E45" s="56" t="s">
-        <x:v>109</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F45" s="59" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G45" s="55">
         <x:v>1</x:v>
@@ -4534,7 +4553,7 @@
       <x:c r="L45" s="56"/>
       <x:c r="M45" s="56"/>
       <x:c r="N45" s="111" t="s">
-        <x:v>102</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="O45" s="112"/>
     </x:row>
@@ -4543,13 +4562,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D46" s="56" t="s">
-        <x:v>95</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E46" s="56" t="s">
-        <x:v>107</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F46" s="59" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G46" s="55">
         <x:v>1</x:v>
@@ -4561,7 +4580,7 @@
       <x:c r="L46" s="56"/>
       <x:c r="M46" s="56"/>
       <x:c r="N46" s="111" t="s">
-        <x:v>102</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="O46" s="112"/>
     </x:row>
@@ -4570,13 +4589,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D47" s="56" t="s">
-        <x:v>91</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E47" s="58" t="s">
-        <x:v>101</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F47" s="59" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G47" s="56"/>
       <x:c r="H47" s="56"/>
@@ -4593,13 +4612,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D48" s="56" t="s">
-        <x:v>96</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E48" s="56" t="s">
-        <x:v>129</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F48" s="59" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G48" s="56"/>
       <x:c r="H48" s="56"/>
@@ -4616,13 +4635,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D49" s="56" t="s">
-        <x:v>125</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E49" s="56" t="s">
-        <x:v>127</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F49" s="59" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G49" s="56"/>
       <x:c r="H49" s="56"/>
@@ -4639,13 +4658,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D50" s="56" t="s">
-        <x:v>128</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E50" s="56" t="s">
-        <x:v>111</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F50" s="59" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G50" s="56"/>
       <x:c r="H50" s="56"/>
@@ -4662,13 +4681,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D51" s="56" t="s">
-        <x:v>124</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E51" s="56" t="s">
-        <x:v>118</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F51" s="59" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G51" s="56"/>
       <x:c r="H51" s="56"/>
@@ -4685,13 +4704,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D52" s="63" t="s">
-        <x:v>123</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E52" s="63" t="s">
-        <x:v>112</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F52" s="64" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G52" s="63"/>
       <x:c r="H52" s="63"/>
@@ -4708,13 +4727,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D53" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E53" s="16" t="s">
-        <x:v>131</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F53" s="16" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G53" s="16">
         <x:v>3</x:v>
@@ -4726,7 +4745,7 @@
       <x:c r="L53" s="16"/>
       <x:c r="M53" s="17"/>
       <x:c r="N53" s="117" t="s">
-        <x:v>132</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="O53" s="118"/>
     </x:row>
@@ -4735,13 +4754,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D54" s="65" t="s">
-        <x:v>113</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E54" s="65" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F54" s="66" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G54" s="65">
         <x:v>1000</x:v>
@@ -4760,19 +4779,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D55" s="67" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E55" s="68" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F55" s="69" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G55" s="69"/>
       <x:c r="H55" s="69"/>
       <x:c r="I55" s="69"/>
       <x:c r="J55" s="69"/>
-      <x:c r="K55" s="69"/>
+      <x:c r="K55" s="69" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="L55" s="69"/>
       <x:c r="M55" s="69"/>
       <x:c r="N55" s="121"/>
@@ -4783,13 +4804,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D56" s="80" t="s">
-        <x:v>41</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E56" s="81" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F56" s="82" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G56" s="82"/>
       <x:c r="H56" s="82"/>
@@ -4848,7 +4869,7 @@
     </x:row>
     <x:row r="62" spans="3:15" ht="21">
       <x:c r="C62" s="83" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D62" s="84"/>
       <x:c r="E62" s="84"/>
@@ -4865,7 +4886,7 @@
     </x:row>
     <x:row r="63" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C63" s="86" t="s">
-        <x:v>80</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D63" s="87"/>
       <x:c r="E63" s="88" t="s">
@@ -4880,17 +4901,17 @@
       <x:c r="L63" s="89"/>
       <x:c r="M63" s="87"/>
       <x:c r="N63" s="41" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O63" s="42"/>
     </x:row>
     <x:row r="64" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C64" s="86" t="s">
-        <x:v>76</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D64" s="87"/>
       <x:c r="E64" s="90" t="s">
-        <x:v>82</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F64" s="89"/>
       <x:c r="G64" s="89"/>
@@ -4901,13 +4922,13 @@
       <x:c r="L64" s="89"/>
       <x:c r="M64" s="87"/>
       <x:c r="N64" s="41" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O64" s="42"/>
     </x:row>
     <x:row r="65" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C65" s="86" t="s">
-        <x:v>79</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D65" s="87"/>
       <x:c r="E65" s="88"/>
@@ -4920,19 +4941,19 @@
       <x:c r="L65" s="89"/>
       <x:c r="M65" s="87"/>
       <x:c r="N65" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O65" s="4" t="s">
-        <x:v>88</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C66" s="86" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D66" s="87"/>
       <x:c r="E66" s="88" t="s">
-        <x:v>45</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F66" s="89"/>
       <x:c r="G66" s="89"/>
@@ -4943,17 +4964,17 @@
       <x:c r="L66" s="89"/>
       <x:c r="M66" s="87"/>
       <x:c r="N66" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O66" s="5"/>
     </x:row>
     <x:row r="67" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C67" s="86" t="s">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D67" s="87"/>
       <x:c r="E67" s="91" t="s">
-        <x:v>77</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F67" s="92"/>
       <x:c r="G67" s="92"/>
@@ -4968,40 +4989,40 @@
     </x:row>
     <x:row r="68" spans="3:15" ht="26.35000000000000142109">
       <x:c r="C68" s="28" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D68" s="29" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E68" s="29" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F68" s="29" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G68" s="29" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H68" s="29" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I68" s="29" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J68" s="29" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F68" s="29" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="G68" s="29" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H68" s="29" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I68" s="29" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="J68" s="29" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="K68" s="29" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L68" s="29" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M68" s="29" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N68" s="125" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O68" s="126"/>
     </x:row>
@@ -5010,26 +5031,26 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D69" s="31" t="s">
-        <x:v>43</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E69" s="31" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F69" s="31" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G69" s="31"/>
       <x:c r="H69" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I69" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J69" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K69" s="31" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L69" s="32"/>
       <x:c r="M69" s="32"/>
@@ -5041,26 +5062,26 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D70" s="16" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E70" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F70" s="9" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G70" s="9"/>
       <x:c r="H70" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I70" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J70" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K70" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L70" s="10"/>
       <x:c r="M70" s="10"/>
@@ -5072,27 +5093,25 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D71" s="9" t="s">
-        <x:v>64</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E71" s="9" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F71" s="9" t="s">
-        <x:v>21</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G71" s="10"/>
       <x:c r="H71" s="9"/>
       <x:c r="I71" s="9"/>
       <x:c r="J71" s="11"/>
       <x:c r="K71" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="L71" s="11"/>
-      <x:c r="M71" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
+      <x:c r="M71" s="141"/>
       <x:c r="N71" s="129" t="s">
-        <x:v>47</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="O71" s="130"/>
     </x:row>
@@ -5101,24 +5120,24 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D72" s="9" t="s">
-        <x:v>57</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E72" s="13" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F72" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G72" s="13"/>
       <x:c r="H72" s="13"/>
       <x:c r="I72" s="13"/>
       <x:c r="J72" s="14"/>
       <x:c r="K72" s="13" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="L72" s="14"/>
       <x:c r="M72" s="14" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N72" s="131"/>
       <x:c r="O72" s="132"/>
@@ -5128,13 +5147,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D73" s="13" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E73" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F73" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G73" s="16">
         <x:v>4000</x:v>
@@ -5143,11 +5162,11 @@
       <x:c r="I73" s="16"/>
       <x:c r="J73" s="16"/>
       <x:c r="K73" s="16" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="L73" s="16"/>
       <x:c r="M73" s="17" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N73" s="133"/>
       <x:c r="O73" s="134"/>
@@ -5157,13 +5176,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D74" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E74" s="16" t="s">
-        <x:v>131</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F74" s="16" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G74" s="16">
         <x:v>3</x:v>
@@ -5175,7 +5194,7 @@
       <x:c r="L74" s="16"/>
       <x:c r="M74" s="17"/>
       <x:c r="N74" s="117" t="s">
-        <x:v>132</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="O74" s="118"/>
     </x:row>
@@ -5184,24 +5203,24 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D75" s="13" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E75" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F75" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G75" s="16"/>
       <x:c r="H75" s="16"/>
       <x:c r="I75" s="16"/>
       <x:c r="J75" s="16"/>
       <x:c r="K75" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L75" s="16"/>
       <x:c r="M75" s="17" t="s">
-        <x:v>1</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="N75" s="133"/>
       <x:c r="O75" s="134"/>
@@ -5211,31 +5230,31 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D76" s="48" t="s">
-        <x:v>38</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E76" s="48" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F76" s="48" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G76" s="48"/>
       <x:c r="H76" s="48"/>
       <x:c r="I76" s="48"/>
       <x:c r="J76" s="48"/>
       <x:c r="K76" s="48" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="L76" s="48"/>
       <x:c r="M76" s="48" t="s">
-        <x:v>1</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="N76" s="135"/>
       <x:c r="O76" s="136"/>
     </x:row>
     <x:row r="80" spans="3:15" ht="21">
       <x:c r="C80" s="83" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D80" s="84"/>
       <x:c r="E80" s="84"/>
@@ -5252,7 +5271,7 @@
     </x:row>
     <x:row r="81" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C81" s="86" t="s">
-        <x:v>80</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D81" s="87"/>
       <x:c r="E81" s="88" t="s">
@@ -5267,17 +5286,17 @@
       <x:c r="L81" s="89"/>
       <x:c r="M81" s="87"/>
       <x:c r="N81" s="41" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O81" s="42"/>
     </x:row>
     <x:row r="82" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C82" s="86" t="s">
-        <x:v>76</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D82" s="87"/>
       <x:c r="E82" s="90" t="s">
-        <x:v>82</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F82" s="89"/>
       <x:c r="G82" s="89"/>
@@ -5288,13 +5307,13 @@
       <x:c r="L82" s="89"/>
       <x:c r="M82" s="87"/>
       <x:c r="N82" s="41" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O82" s="42"/>
     </x:row>
     <x:row r="83" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C83" s="86" t="s">
-        <x:v>79</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D83" s="87"/>
       <x:c r="E83" s="88"/>
@@ -5307,19 +5326,19 @@
       <x:c r="L83" s="89"/>
       <x:c r="M83" s="87"/>
       <x:c r="N83" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O83" s="54" t="s">
-        <x:v>87</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C84" s="86" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D84" s="87"/>
       <x:c r="E84" s="88" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F84" s="89"/>
       <x:c r="G84" s="89"/>
@@ -5330,13 +5349,13 @@
       <x:c r="L84" s="89"/>
       <x:c r="M84" s="87"/>
       <x:c r="N84" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O84" s="5"/>
     </x:row>
     <x:row r="85" spans="3:15" ht="17.80000000000000071054">
       <x:c r="C85" s="86" t="s">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D85" s="87"/>
       <x:c r="E85" s="91"/>
@@ -5353,40 +5372,40 @@
     </x:row>
     <x:row r="86" spans="3:15" ht="26.75">
       <x:c r="C86" s="43" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D86" s="44" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E86" s="44" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F86" s="44" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G86" s="29" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H86" s="29" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I86" s="29" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J86" s="29" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="F86" s="44" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="G86" s="29" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H86" s="29" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I86" s="29" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="J86" s="29" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="K86" s="29" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L86" s="29" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M86" s="29" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N86" s="125" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O86" s="126"/>
     </x:row>
@@ -5395,31 +5414,31 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D87" s="45" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E87" s="46" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F87" s="31" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G87" s="31"/>
       <x:c r="H87" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I87" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J87" s="32" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K87" s="31" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L87" s="32"/>
       <x:c r="M87" s="32"/>
       <x:c r="N87" s="137" t="s">
-        <x:v>46</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="O87" s="138"/>
     </x:row>
@@ -5428,13 +5447,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D88" s="49" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E88" s="50" t="s">
-        <x:v>68</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F88" s="9" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G88" s="9">
         <x:v>1</x:v>
@@ -5443,12 +5462,12 @@
       <x:c r="I88" s="9"/>
       <x:c r="J88" s="11"/>
       <x:c r="K88" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L88" s="10"/>
       <x:c r="M88" s="10"/>
       <x:c r="N88" s="139" t="s">
-        <x:v>89</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="O88" s="140"/>
     </x:row>
@@ -5457,13 +5476,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D89" s="13" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E89" s="16" t="s">
-        <x:v>131</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F89" s="16" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G89" s="16">
         <x:v>3</x:v>
@@ -5475,7 +5494,7 @@
       <x:c r="L89" s="16"/>
       <x:c r="M89" s="17"/>
       <x:c r="N89" s="117" t="s">
-        <x:v>132</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="O89" s="118"/>
     </x:row>
@@ -5484,27 +5503,27 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D90" s="13" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E90" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F90" s="16" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G90" s="16"/>
       <x:c r="H90" s="16"/>
       <x:c r="I90" s="16"/>
       <x:c r="J90" s="16"/>
       <x:c r="K90" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L90" s="16"/>
       <x:c r="M90" s="17" t="s">
-        <x:v>1</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="N90" s="133" t="s">
-        <x:v>98</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="O90" s="134"/>
     </x:row>
@@ -5513,27 +5532,27 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D91" s="48" t="s">
-        <x:v>41</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E91" s="48" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F91" s="48" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G91" s="48"/>
       <x:c r="H91" s="48"/>
       <x:c r="I91" s="48"/>
       <x:c r="J91" s="48"/>
       <x:c r="K91" s="48" t="s">
-        <x:v>58</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="L91" s="48"/>
       <x:c r="M91" s="51" t="s">
-        <x:v>1</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="N91" s="135" t="s">
-        <x:v>99</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="O91" s="136"/>
     </x:row>

--- a/프로젝트 문서/설계 문서/테이블 정의서/테이블 정의서 (240902 수정).xlsx
+++ b/프로젝트 문서/설계 문서/테이블 정의서/테이블 정의서 (240902 수정).xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ledle\Desktop\메인프로젝트\설계 문서\테이블 정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ledle\Documents\GitHub\202408_MainProject_Documents\프로젝트 문서\설계 문서\테이블 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -21,390 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="133">
   <x:si>
-    <x:t>홍대 카페 맞춤 추천 웹서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">	사용자 생년월일 (YYMMDD)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AUTO_INCREMENT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마지막 수정 날짜 및 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 고유 번호 (숫자형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페 고유 번호 (숫자형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영문 컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INDEX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USER_ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GOOD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POINT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LENGTH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일련
-번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서브시스템명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REVIEW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EMAIL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">PAGE </x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선호유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영업시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GENDER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNIQUE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAFE_ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자고유번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰수정일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한글 컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페고유번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAULT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원활동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 고유 번호 (사용자 정보 FK)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>별점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분위기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USER_TEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BIRTHDATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REG_DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAFE_TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OPEN_CLOSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADD_ROAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOD_DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAFE_NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATA
-TYPE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SUB_INFO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 정보 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작   성   일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 활동 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAFE_TEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATABASE ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시  스  템   명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATETIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.09.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USER_NAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFINITION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입 날짜 및 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페 정보 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MEMBER_LIKE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MEMBER_ACT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선호하는 카페 유형 (F: 프랜차이즈, P: 개인)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>놀이방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흡연실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맛점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선호 정보 등록 날짜 및 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선호 정보 수정 날짜 및 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 성별 ('M', 'F')</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TOTAL_POINTT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y : 가능 , N : 불가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>F : 프렌차이즈, P : 개인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LATITUDE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANIENTRY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHEELCHAIR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SMOKINGROOM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LONGITUDE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLAYROOM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IMAGE_URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POINT3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POINT5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PARKING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAFE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휠체어사용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SITE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POINT4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADD_OLD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소재지번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동물출입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WIFI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가성비점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친절점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>와이파이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POINT2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분위기점수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POINT1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MEMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOOD</x:t>
+    <x:t>MEMBER_ID</x:t>
   </x:si>
   <x:si>
     <x:t>M01: 가성비좋은
@@ -414,16 +31,399 @@
 M05: 이색적인</x:t>
   </x:si>
   <x:si>
+    <x:t>작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흡연실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맛점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분위기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>놀이방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>별점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAFE_NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 정보 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATABASE ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAFE_TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADD_ROAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUB_INFO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USER_TEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATA
+TYPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작   성   일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 활동 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOD_DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REG_DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAFE_TEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPEN_CLOSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIRTHDATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페 정보 관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시  스  템   명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFINITION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEMBER_LIKE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USER_NAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.09.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEMBER_ACT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATETIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입 날짜 및 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHEELCHAIR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLAYROOM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LATITUDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IMAGE_URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANIENTRY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LONGITUDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SMOKINGROOM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 성별 ('M', 'F')</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">	사용자 생년월일 (YYMMDD)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍대 카페 맞춤 추천 웹서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선호 정보 등록 날짜 및 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선호 정보 수정 날짜 및 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>F : 프렌차이즈, P : 개인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 고유 번호 (사용자 정보 FK)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 고유 번호 (숫자형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOTAL_POINTT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페 고유 번호 (숫자형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y : 가능 , N : 불가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마지막 수정 날짜 및 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUTO_INCREMENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휠체어사용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동물출입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가성비점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POINT3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PARKING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAFE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소재지번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POINT5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POINT4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADD_OLD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WIFI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SITE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분위기점수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOOD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친절점수</x:t>
+  </x:si>
+  <x:si>
     <x:t>DOUBLE</x:t>
   </x:si>
   <x:si>
+    <x:t>와이파이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POINT1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y: 좋아요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POINT2</x:t>
+  </x:si>
+  <x:si>
     <x:t>NOW()</x:t>
   </x:si>
   <x:si>
-    <x:t>CHAR(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y: 좋아요</x:t>
+    <x:t>서브시스템명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMAIL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POINT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영문 컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOOD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INDEX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일련
+번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REVIEW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LENGTH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선호유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영업시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원활동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAFE_ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리뷰수정일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자고유번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNIQUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GENDER</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">PAGE </x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한글 컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페고유번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선호하는 카페 유형 (F: 프랜차이즈, P: 개인)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -483,16 +483,46 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
-    <x:font>
-      <x:name val="Malgun Gothic"/>
-      <x:sz val="10"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="Malgun Gothic"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -2479,6 +2509,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="14" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -3187,19 +3230,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -3529,8 +3559,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B5:O91"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="E82" activeCellId="0" sqref="E82:M82"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="E13" activeCellId="0" sqref="E13:E13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
@@ -3546,212 +3576,212 @@
   </x:cols>
   <x:sheetData>
     <x:row r="5" spans="3:15" ht="21">
-      <x:c r="C5" s="83" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D5" s="84"/>
-      <x:c r="E5" s="84"/>
-      <x:c r="F5" s="84"/>
-      <x:c r="G5" s="84"/>
-      <x:c r="H5" s="84"/>
-      <x:c r="I5" s="84"/>
-      <x:c r="J5" s="84"/>
-      <x:c r="K5" s="84"/>
-      <x:c r="L5" s="84"/>
-      <x:c r="M5" s="84"/>
-      <x:c r="N5" s="84"/>
-      <x:c r="O5" s="85"/>
+      <x:c r="C5" s="84" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D5" s="85"/>
+      <x:c r="E5" s="85"/>
+      <x:c r="F5" s="85"/>
+      <x:c r="G5" s="85"/>
+      <x:c r="H5" s="85"/>
+      <x:c r="I5" s="85"/>
+      <x:c r="J5" s="85"/>
+      <x:c r="K5" s="85"/>
+      <x:c r="L5" s="85"/>
+      <x:c r="M5" s="85"/>
+      <x:c r="N5" s="85"/>
+      <x:c r="O5" s="86"/>
     </x:row>
     <x:row r="6" spans="2:15" ht="22.05000000000000071054" customHeight="1">
       <x:c r="B6" s="1"/>
-      <x:c r="C6" s="86" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D6" s="87"/>
-      <x:c r="E6" s="88" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F6" s="89"/>
-      <x:c r="G6" s="89"/>
-      <x:c r="H6" s="89"/>
-      <x:c r="I6" s="89"/>
-      <x:c r="J6" s="89"/>
-      <x:c r="K6" s="89"/>
-      <x:c r="L6" s="89"/>
-      <x:c r="M6" s="87"/>
+      <x:c r="C6" s="87" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D6" s="88"/>
+      <x:c r="E6" s="89" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F6" s="90"/>
+      <x:c r="G6" s="90"/>
+      <x:c r="H6" s="90"/>
+      <x:c r="I6" s="90"/>
+      <x:c r="J6" s="90"/>
+      <x:c r="K6" s="90"/>
+      <x:c r="L6" s="90"/>
+      <x:c r="M6" s="88"/>
       <x:c r="N6" s="41" t="s">
-        <x:v>14</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O6" s="42"/>
     </x:row>
     <x:row r="7" spans="3:15" ht="17.80000000000000071054" customHeight="1">
-      <x:c r="C7" s="86" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D7" s="87"/>
-      <x:c r="E7" s="90" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F7" s="89"/>
-      <x:c r="G7" s="89"/>
-      <x:c r="H7" s="89"/>
-      <x:c r="I7" s="89"/>
-      <x:c r="J7" s="89"/>
-      <x:c r="K7" s="89"/>
-      <x:c r="L7" s="89"/>
-      <x:c r="M7" s="87"/>
+      <x:c r="C7" s="87" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D7" s="88"/>
+      <x:c r="E7" s="91" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F7" s="90"/>
+      <x:c r="G7" s="90"/>
+      <x:c r="H7" s="90"/>
+      <x:c r="I7" s="90"/>
+      <x:c r="J7" s="90"/>
+      <x:c r="K7" s="90"/>
+      <x:c r="L7" s="90"/>
+      <x:c r="M7" s="88"/>
       <x:c r="N7" s="41" t="s">
-        <x:v>46</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O7" s="42"/>
     </x:row>
     <x:row r="8" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C8" s="86" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D8" s="87"/>
-      <x:c r="E8" s="88"/>
-      <x:c r="F8" s="89"/>
-      <x:c r="G8" s="89"/>
-      <x:c r="H8" s="89"/>
-      <x:c r="I8" s="89"/>
-      <x:c r="J8" s="89"/>
-      <x:c r="K8" s="89"/>
-      <x:c r="L8" s="89"/>
-      <x:c r="M8" s="87"/>
+      <x:c r="C8" s="87" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D8" s="88"/>
+      <x:c r="E8" s="89"/>
+      <x:c r="F8" s="90"/>
+      <x:c r="G8" s="90"/>
+      <x:c r="H8" s="90"/>
+      <x:c r="I8" s="90"/>
+      <x:c r="J8" s="90"/>
+      <x:c r="K8" s="90"/>
+      <x:c r="L8" s="90"/>
+      <x:c r="M8" s="88"/>
       <x:c r="N8" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="O8" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C9" s="86" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D9" s="87"/>
-      <x:c r="E9" s="88" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="F9" s="89"/>
-      <x:c r="G9" s="89"/>
-      <x:c r="H9" s="89"/>
-      <x:c r="I9" s="89"/>
-      <x:c r="J9" s="89"/>
-      <x:c r="K9" s="89"/>
-      <x:c r="L9" s="89"/>
-      <x:c r="M9" s="87"/>
+      <x:c r="C9" s="87" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D9" s="88"/>
+      <x:c r="E9" s="89" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F9" s="90"/>
+      <x:c r="G9" s="90"/>
+      <x:c r="H9" s="90"/>
+      <x:c r="I9" s="90"/>
+      <x:c r="J9" s="90"/>
+      <x:c r="K9" s="90"/>
+      <x:c r="L9" s="90"/>
+      <x:c r="M9" s="88"/>
       <x:c r="N9" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="O9" s="5"/>
     </x:row>
     <x:row r="10" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C10" s="86" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D10" s="87"/>
-      <x:c r="E10" s="91" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="F10" s="92"/>
-      <x:c r="G10" s="92"/>
-      <x:c r="H10" s="92"/>
-      <x:c r="I10" s="92"/>
-      <x:c r="J10" s="92"/>
-      <x:c r="K10" s="92"/>
-      <x:c r="L10" s="92"/>
-      <x:c r="M10" s="92"/>
-      <x:c r="N10" s="92"/>
-      <x:c r="O10" s="93"/>
+      <x:c r="C10" s="87" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D10" s="88"/>
+      <x:c r="E10" s="92" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F10" s="93"/>
+      <x:c r="G10" s="93"/>
+      <x:c r="H10" s="93"/>
+      <x:c r="I10" s="93"/>
+      <x:c r="J10" s="93"/>
+      <x:c r="K10" s="93"/>
+      <x:c r="L10" s="93"/>
+      <x:c r="M10" s="93"/>
+      <x:c r="N10" s="93"/>
+      <x:c r="O10" s="94"/>
     </x:row>
     <x:row r="11" spans="3:15" ht="26.35000000000000142109">
       <x:c r="C11" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E11" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G11" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I11" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J11" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="K11" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="M11" s="7" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="N11" s="94" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="O11" s="95"/>
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="N11" s="95" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O11" s="96"/>
     </x:row>
     <x:row r="12" spans="3:15">
       <x:c r="C12" s="8">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D12" s="25" t="s">
-        <x:v>33</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E12" s="25" t="s">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F12" s="25" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G12" s="9"/>
       <x:c r="H12" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I12" s="10"/>
       <x:c r="J12" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K12" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L12" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M12" s="10" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N12" s="96" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="O12" s="95"/>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="N12" s="97" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="O12" s="96"/>
     </x:row>
     <x:row r="13" spans="3:15">
       <x:c r="C13" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D13" s="25" t="s">
-        <x:v>44</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E13" s="25" t="s">
-        <x:v>17</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F13" s="25" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G13" s="9">
         <x:v>100</x:v>
@@ -3760,10 +3790,10 @@
       <x:c r="I13" s="9"/>
       <x:c r="J13" s="11"/>
       <x:c r="K13" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L13" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M13" s="10"/>
       <x:c r="N13" s="24"/>
@@ -3774,13 +3804,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D14" s="25" t="s">
-        <x:v>30</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E14" s="25" t="s">
-        <x:v>52</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F14" s="25" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G14" s="10">
         <x:v>300</x:v>
@@ -3789,25 +3819,25 @@
       <x:c r="I14" s="9"/>
       <x:c r="J14" s="11"/>
       <x:c r="K14" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L14" s="11"/>
       <x:c r="M14" s="10"/>
-      <x:c r="N14" s="96"/>
-      <x:c r="O14" s="95"/>
+      <x:c r="N14" s="97"/>
+      <x:c r="O14" s="96"/>
     </x:row>
     <x:row r="15" spans="3:15">
       <x:c r="C15" s="12">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D15" s="27" t="s">
-        <x:v>49</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E15" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F15" s="27" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G15" s="13">
         <x:v>50</x:v>
@@ -3816,25 +3846,25 @@
       <x:c r="I15" s="13"/>
       <x:c r="J15" s="14"/>
       <x:c r="K15" s="13" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L15" s="14"/>
       <x:c r="M15" s="14"/>
-      <x:c r="N15" s="97"/>
-      <x:c r="O15" s="98"/>
+      <x:c r="N15" s="98"/>
+      <x:c r="O15" s="99"/>
     </x:row>
     <x:row r="16" spans="3:15">
       <x:c r="C16" s="15">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D16" s="26" t="s">
-        <x:v>18</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E16" s="26" t="s">
-        <x:v>61</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F16" s="26" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G16" s="16">
         <x:v>20</x:v>
@@ -3843,25 +3873,25 @@
       <x:c r="I16" s="16"/>
       <x:c r="J16" s="16"/>
       <x:c r="K16" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L16" s="16"/>
       <x:c r="M16" s="17"/>
-      <x:c r="N16" s="99"/>
-      <x:c r="O16" s="100"/>
+      <x:c r="N16" s="100"/>
+      <x:c r="O16" s="101"/>
     </x:row>
     <x:row r="17" spans="3:15">
       <x:c r="C17" s="15">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D17" s="26" t="s">
-        <x:v>27</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E17" s="26" t="s">
-        <x:v>62</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F17" s="26" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G17" s="16">
         <x:v>6</x:v>
@@ -3870,27 +3900,27 @@
       <x:c r="I17" s="16"/>
       <x:c r="J17" s="17"/>
       <x:c r="K17" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L17" s="17"/>
       <x:c r="M17" s="17"/>
-      <x:c r="N17" s="99" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O17" s="100"/>
+      <x:c r="N17" s="100" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="O17" s="101"/>
     </x:row>
     <x:row r="18" spans="3:15">
       <x:c r="C18" s="15">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="26" t="s">
-        <x:v>51</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E18" s="26" t="s">
-        <x:v>26</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F18" s="26" t="s">
-        <x:v>28</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G18" s="16">
         <x:v>1</x:v>
@@ -3899,279 +3929,279 @@
       <x:c r="I18" s="16"/>
       <x:c r="J18" s="17"/>
       <x:c r="K18" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L18" s="17"/>
       <x:c r="M18" s="17"/>
-      <x:c r="N18" s="99" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="O18" s="100"/>
+      <x:c r="N18" s="100" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="O18" s="101"/>
     </x:row>
     <x:row r="19" spans="3:15">
       <x:c r="C19" s="15">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D19" s="26" t="s">
-        <x:v>31</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E19" s="26" t="s">
-        <x:v>63</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F19" s="26" t="s">
-        <x:v>77</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G19" s="16"/>
       <x:c r="H19" s="16"/>
       <x:c r="I19" s="16"/>
       <x:c r="J19" s="17"/>
       <x:c r="K19" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L19" s="17"/>
       <x:c r="M19" s="17" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="N19" s="99" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="O19" s="100"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="N19" s="100" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O19" s="101"/>
     </x:row>
     <x:row r="20" spans="3:15" ht="16.75">
       <x:c r="C20" s="18">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="38" t="s">
-        <x:v>38</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E20" s="38" t="s">
-        <x:v>67</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F20" s="38" t="s">
-        <x:v>77</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G20" s="19"/>
       <x:c r="H20" s="19"/>
       <x:c r="I20" s="19"/>
       <x:c r="J20" s="20"/>
       <x:c r="K20" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L20" s="20"/>
       <x:c r="M20" s="20" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="N20" s="101" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="O20" s="102"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="N20" s="102" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="O20" s="103"/>
     </x:row>
     <x:row r="23" spans="3:15" ht="21">
-      <x:c r="C23" s="103" t="s">
+      <x:c r="C23" s="104" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D23" s="105"/>
+      <x:c r="E23" s="105"/>
+      <x:c r="F23" s="105"/>
+      <x:c r="G23" s="105"/>
+      <x:c r="H23" s="105"/>
+      <x:c r="I23" s="105"/>
+      <x:c r="J23" s="105"/>
+      <x:c r="K23" s="105"/>
+      <x:c r="L23" s="105"/>
+      <x:c r="M23" s="105"/>
+      <x:c r="N23" s="105"/>
+      <x:c r="O23" s="106"/>
+    </x:row>
+    <x:row r="24" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C24" s="107" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D24" s="88"/>
+      <x:c r="E24" s="89" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F24" s="90"/>
+      <x:c r="G24" s="90"/>
+      <x:c r="H24" s="90"/>
+      <x:c r="I24" s="90"/>
+      <x:c r="J24" s="90"/>
+      <x:c r="K24" s="90"/>
+      <x:c r="L24" s="90"/>
+      <x:c r="M24" s="88"/>
+      <x:c r="N24" s="41" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="O24" s="70"/>
+    </x:row>
+    <x:row r="25" spans="3:15" ht="17.80000000000000071054" customHeight="1">
+      <x:c r="C25" s="107" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D25" s="88"/>
+      <x:c r="E25" s="91" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F25" s="90"/>
+      <x:c r="G25" s="90"/>
+      <x:c r="H25" s="90"/>
+      <x:c r="I25" s="90"/>
+      <x:c r="J25" s="90"/>
+      <x:c r="K25" s="90"/>
+      <x:c r="L25" s="90"/>
+      <x:c r="M25" s="88"/>
+      <x:c r="N25" s="41" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O25" s="70"/>
+    </x:row>
+    <x:row r="26" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C26" s="107" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D26" s="88"/>
+      <x:c r="E26" s="89"/>
+      <x:c r="F26" s="90"/>
+      <x:c r="G26" s="90"/>
+      <x:c r="H26" s="90"/>
+      <x:c r="I26" s="90"/>
+      <x:c r="J26" s="90"/>
+      <x:c r="K26" s="90"/>
+      <x:c r="L26" s="90"/>
+      <x:c r="M26" s="88"/>
+      <x:c r="N26" s="3" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="O26" s="71" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C27" s="107" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D27" s="88"/>
+      <x:c r="E27" s="89" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F27" s="90"/>
+      <x:c r="G27" s="90"/>
+      <x:c r="H27" s="90"/>
+      <x:c r="I27" s="90"/>
+      <x:c r="J27" s="90"/>
+      <x:c r="K27" s="90"/>
+      <x:c r="L27" s="90"/>
+      <x:c r="M27" s="88"/>
+      <x:c r="N27" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="O27" s="72"/>
+    </x:row>
+    <x:row r="28" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C28" s="107" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D23" s="104"/>
-      <x:c r="E23" s="104"/>
-      <x:c r="F23" s="104"/>
-      <x:c r="G23" s="104"/>
-      <x:c r="H23" s="104"/>
-      <x:c r="I23" s="104"/>
-      <x:c r="J23" s="104"/>
-      <x:c r="K23" s="104"/>
-      <x:c r="L23" s="104"/>
-      <x:c r="M23" s="104"/>
-      <x:c r="N23" s="104"/>
-      <x:c r="O23" s="105"/>
-    </x:row>
-    <x:row r="24" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C24" s="106" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D24" s="87"/>
-      <x:c r="E24" s="88" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F24" s="89"/>
-      <x:c r="G24" s="89"/>
-      <x:c r="H24" s="89"/>
-      <x:c r="I24" s="89"/>
-      <x:c r="J24" s="89"/>
-      <x:c r="K24" s="89"/>
-      <x:c r="L24" s="89"/>
-      <x:c r="M24" s="87"/>
-      <x:c r="N24" s="41" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="O24" s="70"/>
-    </x:row>
-    <x:row r="25" spans="3:15" ht="17.80000000000000071054" customHeight="1">
-      <x:c r="C25" s="106" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D25" s="87"/>
-      <x:c r="E25" s="90" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F25" s="89"/>
-      <x:c r="G25" s="89"/>
-      <x:c r="H25" s="89"/>
-      <x:c r="I25" s="89"/>
-      <x:c r="J25" s="89"/>
-      <x:c r="K25" s="89"/>
-      <x:c r="L25" s="89"/>
-      <x:c r="M25" s="87"/>
-      <x:c r="N25" s="41" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="O25" s="70"/>
-    </x:row>
-    <x:row r="26" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C26" s="106" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D26" s="87"/>
-      <x:c r="E26" s="88"/>
-      <x:c r="F26" s="89"/>
-      <x:c r="G26" s="89"/>
-      <x:c r="H26" s="89"/>
-      <x:c r="I26" s="89"/>
-      <x:c r="J26" s="89"/>
-      <x:c r="K26" s="89"/>
-      <x:c r="L26" s="89"/>
-      <x:c r="M26" s="87"/>
-      <x:c r="N26" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="O26" s="71" t="s">
-        <x:v>111</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C27" s="106" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D27" s="87"/>
-      <x:c r="E27" s="88" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F27" s="89"/>
-      <x:c r="G27" s="89"/>
-      <x:c r="H27" s="89"/>
-      <x:c r="I27" s="89"/>
-      <x:c r="J27" s="89"/>
-      <x:c r="K27" s="89"/>
-      <x:c r="L27" s="89"/>
-      <x:c r="M27" s="87"/>
-      <x:c r="N27" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="O27" s="72"/>
-    </x:row>
-    <x:row r="28" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C28" s="106" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D28" s="87"/>
-      <x:c r="E28" s="91" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="F28" s="92"/>
-      <x:c r="G28" s="92"/>
-      <x:c r="H28" s="92"/>
-      <x:c r="I28" s="92"/>
-      <x:c r="J28" s="92"/>
-      <x:c r="K28" s="92"/>
-      <x:c r="L28" s="92"/>
-      <x:c r="M28" s="92"/>
-      <x:c r="N28" s="92"/>
-      <x:c r="O28" s="107"/>
+      <x:c r="D28" s="88"/>
+      <x:c r="E28" s="92" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F28" s="93"/>
+      <x:c r="G28" s="93"/>
+      <x:c r="H28" s="93"/>
+      <x:c r="I28" s="93"/>
+      <x:c r="J28" s="93"/>
+      <x:c r="K28" s="93"/>
+      <x:c r="L28" s="93"/>
+      <x:c r="M28" s="93"/>
+      <x:c r="N28" s="93"/>
+      <x:c r="O28" s="108"/>
     </x:row>
     <x:row r="29" spans="3:15" ht="26.35000000000000142109">
       <x:c r="C29" s="73" t="s">
-        <x:v>13</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D29" s="7" t="s">
-        <x:v>37</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E29" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F29" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G29" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H29" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I29" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J29" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="K29" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="L29" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="M29" s="7" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="N29" s="94" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="O29" s="108"/>
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="N29" s="95" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O29" s="109"/>
     </x:row>
     <x:row r="30" spans="3:15">
       <x:c r="C30" s="33">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D30" s="25" t="s">
-        <x:v>40</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E30" s="25" t="s">
-        <x:v>32</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F30" s="25" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G30" s="9"/>
       <x:c r="H30" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I30" s="10"/>
       <x:c r="J30" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K30" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L30" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M30" s="10" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N30" s="96" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="O30" s="108"/>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="N30" s="97" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="O30" s="109"/>
     </x:row>
     <x:row r="31" spans="3:15">
       <x:c r="C31" s="33">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D31" s="25" t="s">
-        <x:v>36</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E31" s="25" t="s">
-        <x:v>68</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F31" s="25" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G31" s="9">
         <x:v>100</x:v>
@@ -4180,7 +4210,7 @@
       <x:c r="I31" s="9"/>
       <x:c r="J31" s="11"/>
       <x:c r="K31" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L31" s="10"/>
       <x:c r="M31" s="10"/>
@@ -4192,13 +4222,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D32" s="56" t="s">
-        <x:v>113</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E32" s="56" t="s">
-        <x:v>113</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F32" s="59" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G32" s="56">
         <x:v>300</x:v>
@@ -4207,25 +4237,25 @@
       <x:c r="I32" s="56"/>
       <x:c r="J32" s="56"/>
       <x:c r="K32" s="56" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L32" s="56"/>
       <x:c r="M32" s="56"/>
-      <x:c r="N32" s="109"/>
-      <x:c r="O32" s="110"/>
+      <x:c r="N32" s="110"/>
+      <x:c r="O32" s="111"/>
     </x:row>
     <x:row r="33" spans="3:15" s="57" customFormat="1">
       <x:c r="C33" s="75">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D33" s="60" t="s">
-        <x:v>10</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E33" s="61" t="s">
-        <x:v>64</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F33" s="59" t="s">
-        <x:v>28</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G33" s="55">
         <x:v>1</x:v>
@@ -4234,27 +4264,27 @@
       <x:c r="I33" s="56"/>
       <x:c r="J33" s="56"/>
       <x:c r="K33" s="56" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L33" s="56"/>
       <x:c r="M33" s="56"/>
-      <x:c r="N33" s="111" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="O33" s="112"/>
+      <x:c r="N33" s="112" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="O33" s="113"/>
     </x:row>
     <x:row r="34" spans="3:15" s="57" customFormat="1">
       <x:c r="C34" s="75">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D34" s="56" t="s">
-        <x:v>93</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E34" s="58" t="s">
-        <x:v>66</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F34" s="59" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G34" s="56">
         <x:v>100</x:v>
@@ -4263,25 +4293,25 @@
       <x:c r="I34" s="56"/>
       <x:c r="J34" s="56"/>
       <x:c r="K34" s="56" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L34" s="56"/>
       <x:c r="M34" s="56"/>
-      <x:c r="N34" s="111"/>
-      <x:c r="O34" s="112"/>
+      <x:c r="N34" s="112"/>
+      <x:c r="O34" s="113"/>
     </x:row>
     <x:row r="35" spans="3:15" s="57" customFormat="1">
       <x:c r="C35" s="75">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D35" s="56" t="s">
-        <x:v>116</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E35" s="58" t="s">
-        <x:v>115</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F35" s="59" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G35" s="56">
         <x:v>100</x:v>
@@ -4290,75 +4320,75 @@
       <x:c r="I35" s="56"/>
       <x:c r="J35" s="56"/>
       <x:c r="K35" s="56" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L35" s="56"/>
       <x:c r="M35" s="56"/>
-      <x:c r="N35" s="109"/>
-      <x:c r="O35" s="110"/>
+      <x:c r="N35" s="110"/>
+      <x:c r="O35" s="111"/>
     </x:row>
     <x:row r="36" spans="3:15" s="57" customFormat="1">
       <x:c r="C36" s="75">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D36" s="58" t="s">
-        <x:v>86</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E36" s="58" t="s">
-        <x:v>100</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F36" s="59" t="s">
-        <x:v>129</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G36" s="56"/>
       <x:c r="H36" s="56"/>
       <x:c r="I36" s="56"/>
       <x:c r="J36" s="56"/>
       <x:c r="K36" s="56" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L36" s="56"/>
       <x:c r="M36" s="56"/>
-      <x:c r="N36" s="113"/>
-      <x:c r="O36" s="114"/>
+      <x:c r="N36" s="114"/>
+      <x:c r="O36" s="115"/>
     </x:row>
     <x:row r="37" spans="3:15" s="57" customFormat="1">
       <x:c r="C37" s="75">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D37" s="58" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E37" s="58" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F37" s="59" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="E37" s="58" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="F37" s="59" t="s">
-        <x:v>129</x:v>
       </x:c>
       <x:c r="G37" s="56"/>
       <x:c r="H37" s="56"/>
       <x:c r="I37" s="56"/>
       <x:c r="J37" s="56"/>
       <x:c r="K37" s="56" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L37" s="56"/>
       <x:c r="M37" s="56"/>
-      <x:c r="N37" s="113"/>
-      <x:c r="O37" s="114"/>
+      <x:c r="N37" s="114"/>
+      <x:c r="O37" s="115"/>
     </x:row>
     <x:row r="38" spans="3:15" s="57" customFormat="1">
       <x:c r="C38" s="75">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D38" s="56" t="s">
-        <x:v>25</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="61" t="s">
-        <x:v>65</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F38" s="59" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G38" s="56">
         <x:v>30</x:v>
@@ -4369,21 +4399,21 @@
       <x:c r="K38" s="56"/>
       <x:c r="L38" s="56"/>
       <x:c r="M38" s="56"/>
-      <x:c r="N38" s="109"/>
-      <x:c r="O38" s="110"/>
+      <x:c r="N38" s="110"/>
+      <x:c r="O38" s="111"/>
     </x:row>
     <x:row r="39" spans="3:15" s="57" customFormat="1">
       <x:c r="C39" s="75">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D39" s="56" t="s">
-        <x:v>18</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E39" s="61" t="s">
-        <x:v>74</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F39" s="59" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G39" s="56">
         <x:v>15</x:v>
@@ -4394,21 +4424,21 @@
       <x:c r="K39" s="56"/>
       <x:c r="L39" s="56"/>
       <x:c r="M39" s="56"/>
-      <x:c r="N39" s="109"/>
-      <x:c r="O39" s="110"/>
+      <x:c r="N39" s="110"/>
+      <x:c r="O39" s="111"/>
     </x:row>
     <x:row r="40" spans="3:15" s="57" customFormat="1">
       <x:c r="C40" s="75">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D40" s="56" t="s">
-        <x:v>15</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E40" s="56" t="s">
-        <x:v>70</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F40" s="59" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G40" s="56">
         <x:v>100</x:v>
@@ -4419,21 +4449,21 @@
       <x:c r="K40" s="56"/>
       <x:c r="L40" s="56"/>
       <x:c r="M40" s="56"/>
-      <x:c r="N40" s="109"/>
-      <x:c r="O40" s="110"/>
+      <x:c r="N40" s="110"/>
+      <x:c r="O40" s="111"/>
     </x:row>
     <x:row r="41" spans="3:15" s="57" customFormat="1">
       <x:c r="C41" s="75">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D41" s="56" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E41" s="56" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F41" s="59" t="s">
         <x:v>122</x:v>
-      </x:c>
-      <x:c r="E41" s="56" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="F41" s="59" t="s">
-        <x:v>28</x:v>
       </x:c>
       <x:c r="G41" s="55">
         <x:v>1</x:v>
@@ -4444,23 +4474,23 @@
       <x:c r="K41" s="56"/>
       <x:c r="L41" s="56"/>
       <x:c r="M41" s="56"/>
-      <x:c r="N41" s="111" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="O41" s="112"/>
+      <x:c r="N41" s="112" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="O41" s="113"/>
     </x:row>
     <x:row r="42" spans="3:15" s="57" customFormat="1">
       <x:c r="C42" s="75">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D42" s="56" t="s">
-        <x:v>117</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E42" s="56" t="s">
-        <x:v>101</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F42" s="59" t="s">
-        <x:v>28</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G42" s="55">
         <x:v>1</x:v>
@@ -4471,23 +4501,23 @@
       <x:c r="K42" s="56"/>
       <x:c r="L42" s="56"/>
       <x:c r="M42" s="56"/>
-      <x:c r="N42" s="111" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="O42" s="112"/>
+      <x:c r="N42" s="112" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="O42" s="113"/>
     </x:row>
     <x:row r="43" spans="3:15" s="57" customFormat="1">
       <x:c r="C43" s="75">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D43" s="56" t="s">
-        <x:v>90</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E43" s="56" t="s">
-        <x:v>110</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F43" s="59" t="s">
-        <x:v>28</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G43" s="55">
         <x:v>1</x:v>
@@ -4498,23 +4528,23 @@
       <x:c r="K43" s="56"/>
       <x:c r="L43" s="56"/>
       <x:c r="M43" s="56"/>
-      <x:c r="N43" s="111" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="O43" s="112"/>
+      <x:c r="N43" s="112" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="O43" s="113"/>
     </x:row>
     <x:row r="44" spans="3:15" s="57" customFormat="1">
       <x:c r="C44" s="75">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D44" s="56" t="s">
-        <x:v>112</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E44" s="56" t="s">
-        <x:v>102</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F44" s="59" t="s">
-        <x:v>28</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G44" s="55">
         <x:v>1</x:v>
@@ -4525,23 +4555,23 @@
       <x:c r="K44" s="56"/>
       <x:c r="L44" s="56"/>
       <x:c r="M44" s="56"/>
-      <x:c r="N44" s="111" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="O44" s="112"/>
+      <x:c r="N44" s="112" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="O44" s="113"/>
     </x:row>
     <x:row r="45" spans="3:15" s="57" customFormat="1">
       <x:c r="C45" s="75">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D45" s="56" t="s">
-        <x:v>88</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E45" s="56" t="s">
-        <x:v>105</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F45" s="59" t="s">
-        <x:v>28</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G45" s="55">
         <x:v>1</x:v>
@@ -4552,23 +4582,23 @@
       <x:c r="K45" s="56"/>
       <x:c r="L45" s="56"/>
       <x:c r="M45" s="56"/>
-      <x:c r="N45" s="111" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="O45" s="112"/>
+      <x:c r="N45" s="112" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="O45" s="113"/>
     </x:row>
     <x:row r="46" spans="3:15" s="57" customFormat="1">
       <x:c r="C46" s="75">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D46" s="56" t="s">
-        <x:v>91</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E46" s="56" t="s">
-        <x:v>103</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F46" s="59" t="s">
-        <x:v>28</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G46" s="55">
         <x:v>1</x:v>
@@ -4579,23 +4609,23 @@
       <x:c r="K46" s="56"/>
       <x:c r="L46" s="56"/>
       <x:c r="M46" s="56"/>
-      <x:c r="N46" s="111" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="O46" s="112"/>
+      <x:c r="N46" s="112" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="O46" s="113"/>
     </x:row>
     <x:row r="47" spans="3:15" s="57" customFormat="1">
       <x:c r="C47" s="75">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D47" s="56" t="s">
-        <x:v>87</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E47" s="58" t="s">
-        <x:v>97</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F47" s="59" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G47" s="56"/>
       <x:c r="H47" s="56"/>
@@ -4604,21 +4634,21 @@
       <x:c r="K47" s="56"/>
       <x:c r="L47" s="56"/>
       <x:c r="M47" s="56"/>
-      <x:c r="N47" s="109"/>
-      <x:c r="O47" s="110"/>
+      <x:c r="N47" s="110"/>
+      <x:c r="O47" s="111"/>
     </x:row>
     <x:row r="48" spans="3:15" s="57" customFormat="1">
       <x:c r="C48" s="75">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D48" s="56" t="s">
-        <x:v>92</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E48" s="56" t="s">
-        <x:v>125</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F48" s="59" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G48" s="56"/>
       <x:c r="H48" s="56"/>
@@ -4627,21 +4657,21 @@
       <x:c r="K48" s="56"/>
       <x:c r="L48" s="56"/>
       <x:c r="M48" s="56"/>
-      <x:c r="N48" s="109"/>
-      <x:c r="O48" s="110"/>
+      <x:c r="N48" s="110"/>
+      <x:c r="O48" s="111"/>
     </x:row>
     <x:row r="49" spans="3:15" s="57" customFormat="1">
       <x:c r="C49" s="75">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D49" s="56" t="s">
-        <x:v>121</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E49" s="56" t="s">
-        <x:v>123</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F49" s="59" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G49" s="56"/>
       <x:c r="H49" s="56"/>
@@ -4650,21 +4680,21 @@
       <x:c r="K49" s="56"/>
       <x:c r="L49" s="56"/>
       <x:c r="M49" s="56"/>
-      <x:c r="N49" s="109"/>
-      <x:c r="O49" s="110"/>
+      <x:c r="N49" s="110"/>
+      <x:c r="O49" s="111"/>
     </x:row>
     <x:row r="50" spans="3:15" s="57" customFormat="1">
       <x:c r="C50" s="75">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D50" s="56" t="s">
-        <x:v>124</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E50" s="56" t="s">
-        <x:v>107</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F50" s="59" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G50" s="56"/>
       <x:c r="H50" s="56"/>
@@ -4673,21 +4703,21 @@
       <x:c r="K50" s="56"/>
       <x:c r="L50" s="56"/>
       <x:c r="M50" s="56"/>
-      <x:c r="N50" s="109"/>
-      <x:c r="O50" s="110"/>
+      <x:c r="N50" s="110"/>
+      <x:c r="O50" s="111"/>
     </x:row>
     <x:row r="51" spans="3:15" s="57" customFormat="1">
       <x:c r="C51" s="75">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D51" s="56" t="s">
-        <x:v>120</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E51" s="56" t="s">
-        <x:v>114</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F51" s="59" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G51" s="56"/>
       <x:c r="H51" s="56"/>
@@ -4696,21 +4726,21 @@
       <x:c r="K51" s="56"/>
       <x:c r="L51" s="56"/>
       <x:c r="M51" s="56"/>
-      <x:c r="N51" s="109"/>
-      <x:c r="O51" s="110"/>
+      <x:c r="N51" s="110"/>
+      <x:c r="O51" s="111"/>
     </x:row>
     <x:row r="52" spans="3:15" s="57" customFormat="1">
       <x:c r="C52" s="76">
         <x:v>23</x:v>
       </x:c>
       <x:c r="D52" s="63" t="s">
-        <x:v>119</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E52" s="63" t="s">
-        <x:v>108</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F52" s="64" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G52" s="63"/>
       <x:c r="H52" s="63"/>
@@ -4719,21 +4749,21 @@
       <x:c r="K52" s="63"/>
       <x:c r="L52" s="63"/>
       <x:c r="M52" s="63"/>
-      <x:c r="N52" s="115"/>
-      <x:c r="O52" s="116"/>
+      <x:c r="N52" s="116"/>
+      <x:c r="O52" s="117"/>
     </x:row>
     <x:row r="53" spans="3:15" s="57" customFormat="1" ht="62.25" customHeight="1">
       <x:c r="C53" s="35">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D53" s="13" t="s">
-        <x:v>57</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E53" s="16" t="s">
-        <x:v>127</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F53" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G53" s="16">
         <x:v>3</x:v>
@@ -4744,23 +4774,23 @@
       <x:c r="K53" s="16"/>
       <x:c r="L53" s="16"/>
       <x:c r="M53" s="17"/>
-      <x:c r="N53" s="117" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="O53" s="118"/>
+      <x:c r="N53" s="118" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O53" s="119"/>
     </x:row>
     <x:row r="54" spans="3:15" s="57" customFormat="1">
       <x:c r="C54" s="77">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D54" s="65" t="s">
-        <x:v>109</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E54" s="65" t="s">
-        <x:v>106</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F54" s="66" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G54" s="65">
         <x:v>1000</x:v>
@@ -4771,46 +4801,46 @@
       <x:c r="K54" s="65"/>
       <x:c r="L54" s="65"/>
       <x:c r="M54" s="65"/>
-      <x:c r="N54" s="119"/>
-      <x:c r="O54" s="120"/>
+      <x:c r="N54" s="120"/>
+      <x:c r="O54" s="121"/>
     </x:row>
     <x:row r="55" spans="3:15" s="57" customFormat="1">
       <x:c r="C55" s="78">
         <x:v>26</x:v>
       </x:c>
       <x:c r="D55" s="67" t="s">
-        <x:v>34</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E55" s="68" t="s">
-        <x:v>63</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F55" s="69" t="s">
-        <x:v>77</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G55" s="69"/>
       <x:c r="H55" s="69"/>
       <x:c r="I55" s="69"/>
       <x:c r="J55" s="69"/>
       <x:c r="K55" s="69" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L55" s="69"/>
       <x:c r="M55" s="69"/>
-      <x:c r="N55" s="121"/>
-      <x:c r="O55" s="122"/>
+      <x:c r="N55" s="122"/>
+      <x:c r="O55" s="123"/>
     </x:row>
     <x:row r="56" spans="3:15" s="57" customFormat="1" ht="16.75">
       <x:c r="C56" s="79">
         <x:v>27</x:v>
       </x:c>
       <x:c r="D56" s="80" t="s">
-        <x:v>38</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E56" s="81" t="s">
-        <x:v>67</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F56" s="82" t="s">
-        <x:v>77</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G56" s="82"/>
       <x:c r="H56" s="82"/>
@@ -4819,8 +4849,8 @@
       <x:c r="K56" s="82"/>
       <x:c r="L56" s="82"/>
       <x:c r="M56" s="82"/>
-      <x:c r="N56" s="123"/>
-      <x:c r="O56" s="124"/>
+      <x:c r="N56" s="124"/>
+      <x:c r="O56" s="125"/>
     </x:row>
     <x:row r="57" spans="3:15">
       <x:c r="C57" s="62"/>
@@ -4868,220 +4898,220 @@
       <x:c r="O61" s="37"/>
     </x:row>
     <x:row r="62" spans="3:15" ht="21">
-      <x:c r="C62" s="83" t="s">
+      <x:c r="C62" s="84" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D62" s="85"/>
+      <x:c r="E62" s="85"/>
+      <x:c r="F62" s="85"/>
+      <x:c r="G62" s="85"/>
+      <x:c r="H62" s="85"/>
+      <x:c r="I62" s="85"/>
+      <x:c r="J62" s="85"/>
+      <x:c r="K62" s="85"/>
+      <x:c r="L62" s="85"/>
+      <x:c r="M62" s="85"/>
+      <x:c r="N62" s="85"/>
+      <x:c r="O62" s="86"/>
+    </x:row>
+    <x:row r="63" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C63" s="87" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D63" s="88"/>
+      <x:c r="E63" s="89" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F63" s="90"/>
+      <x:c r="G63" s="90"/>
+      <x:c r="H63" s="90"/>
+      <x:c r="I63" s="90"/>
+      <x:c r="J63" s="90"/>
+      <x:c r="K63" s="90"/>
+      <x:c r="L63" s="90"/>
+      <x:c r="M63" s="88"/>
+      <x:c r="N63" s="41" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="O63" s="42"/>
+    </x:row>
+    <x:row r="64" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C64" s="87" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D64" s="88"/>
+      <x:c r="E64" s="91" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F64" s="90"/>
+      <x:c r="G64" s="90"/>
+      <x:c r="H64" s="90"/>
+      <x:c r="I64" s="90"/>
+      <x:c r="J64" s="90"/>
+      <x:c r="K64" s="90"/>
+      <x:c r="L64" s="90"/>
+      <x:c r="M64" s="88"/>
+      <x:c r="N64" s="41" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O64" s="42"/>
+    </x:row>
+    <x:row r="65" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C65" s="87" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D65" s="88"/>
+      <x:c r="E65" s="89"/>
+      <x:c r="F65" s="90"/>
+      <x:c r="G65" s="90"/>
+      <x:c r="H65" s="90"/>
+      <x:c r="I65" s="90"/>
+      <x:c r="J65" s="90"/>
+      <x:c r="K65" s="90"/>
+      <x:c r="L65" s="90"/>
+      <x:c r="M65" s="88"/>
+      <x:c r="N65" s="3" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="O65" s="4" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C66" s="87" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D66" s="88"/>
+      <x:c r="E66" s="89" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="F66" s="90"/>
+      <x:c r="G66" s="90"/>
+      <x:c r="H66" s="90"/>
+      <x:c r="I66" s="90"/>
+      <x:c r="J66" s="90"/>
+      <x:c r="K66" s="90"/>
+      <x:c r="L66" s="90"/>
+      <x:c r="M66" s="88"/>
+      <x:c r="N66" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="O66" s="5"/>
+    </x:row>
+    <x:row r="67" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C67" s="87" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D62" s="84"/>
-      <x:c r="E62" s="84"/>
-      <x:c r="F62" s="84"/>
-      <x:c r="G62" s="84"/>
-      <x:c r="H62" s="84"/>
-      <x:c r="I62" s="84"/>
-      <x:c r="J62" s="84"/>
-      <x:c r="K62" s="84"/>
-      <x:c r="L62" s="84"/>
-      <x:c r="M62" s="84"/>
-      <x:c r="N62" s="84"/>
-      <x:c r="O62" s="85"/>
-    </x:row>
-    <x:row r="63" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C63" s="86" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D63" s="87"/>
-      <x:c r="E63" s="88" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F63" s="89"/>
-      <x:c r="G63" s="89"/>
-      <x:c r="H63" s="89"/>
-      <x:c r="I63" s="89"/>
-      <x:c r="J63" s="89"/>
-      <x:c r="K63" s="89"/>
-      <x:c r="L63" s="89"/>
-      <x:c r="M63" s="87"/>
-      <x:c r="N63" s="41" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="O63" s="42"/>
-    </x:row>
-    <x:row r="64" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C64" s="86" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D64" s="87"/>
-      <x:c r="E64" s="90" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F64" s="89"/>
-      <x:c r="G64" s="89"/>
-      <x:c r="H64" s="89"/>
-      <x:c r="I64" s="89"/>
-      <x:c r="J64" s="89"/>
-      <x:c r="K64" s="89"/>
-      <x:c r="L64" s="89"/>
-      <x:c r="M64" s="87"/>
-      <x:c r="N64" s="41" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="O64" s="42"/>
-    </x:row>
-    <x:row r="65" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C65" s="86" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D65" s="87"/>
-      <x:c r="E65" s="88"/>
-      <x:c r="F65" s="89"/>
-      <x:c r="G65" s="89"/>
-      <x:c r="H65" s="89"/>
-      <x:c r="I65" s="89"/>
-      <x:c r="J65" s="89"/>
-      <x:c r="K65" s="89"/>
-      <x:c r="L65" s="89"/>
-      <x:c r="M65" s="87"/>
-      <x:c r="N65" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="O65" s="4" t="s">
-        <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C66" s="86" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D66" s="87"/>
-      <x:c r="E66" s="88" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F66" s="89"/>
-      <x:c r="G66" s="89"/>
-      <x:c r="H66" s="89"/>
-      <x:c r="I66" s="89"/>
-      <x:c r="J66" s="89"/>
-      <x:c r="K66" s="89"/>
-      <x:c r="L66" s="89"/>
-      <x:c r="M66" s="87"/>
-      <x:c r="N66" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="O66" s="5"/>
-    </x:row>
-    <x:row r="67" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C67" s="86" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D67" s="87"/>
-      <x:c r="E67" s="91" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="F67" s="92"/>
-      <x:c r="G67" s="92"/>
-      <x:c r="H67" s="92"/>
-      <x:c r="I67" s="92"/>
-      <x:c r="J67" s="92"/>
-      <x:c r="K67" s="92"/>
-      <x:c r="L67" s="92"/>
-      <x:c r="M67" s="92"/>
-      <x:c r="N67" s="92"/>
-      <x:c r="O67" s="93"/>
+      <x:c r="D67" s="88"/>
+      <x:c r="E67" s="92" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F67" s="93"/>
+      <x:c r="G67" s="93"/>
+      <x:c r="H67" s="93"/>
+      <x:c r="I67" s="93"/>
+      <x:c r="J67" s="93"/>
+      <x:c r="K67" s="93"/>
+      <x:c r="L67" s="93"/>
+      <x:c r="M67" s="93"/>
+      <x:c r="N67" s="93"/>
+      <x:c r="O67" s="94"/>
     </x:row>
     <x:row r="68" spans="3:15" ht="26.35000000000000142109">
       <x:c r="C68" s="28" t="s">
-        <x:v>13</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D68" s="29" t="s">
-        <x:v>37</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E68" s="29" t="s">
-        <x:v>6</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F68" s="29" t="s">
-        <x:v>69</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G68" s="29" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H68" s="29" t="s">
-        <x:v>47</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I68" s="29" t="s">
-        <x:v>56</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J68" s="29" t="s">
-        <x:v>7</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="K68" s="29" t="s">
-        <x:v>20</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="L68" s="29" t="s">
-        <x:v>29</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="M68" s="29" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="N68" s="125" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="O68" s="126"/>
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="N68" s="126" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O68" s="127"/>
     </x:row>
     <x:row r="69" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C69" s="30">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D69" s="31" t="s">
-        <x:v>40</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E69" s="31" t="s">
-        <x:v>32</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F69" s="31" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G69" s="31"/>
       <x:c r="H69" s="32" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I69" s="32" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J69" s="32" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K69" s="31" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L69" s="32"/>
       <x:c r="M69" s="32"/>
-      <x:c r="N69" s="127"/>
-      <x:c r="O69" s="128"/>
+      <x:c r="N69" s="128"/>
+      <x:c r="O69" s="129"/>
     </x:row>
     <x:row r="70" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C70" s="33">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D70" s="16" t="s">
-        <x:v>33</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E70" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F70" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G70" s="9"/>
       <x:c r="H70" s="9" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I70" s="9" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J70" s="11" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K70" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L70" s="10"/>
       <x:c r="M70" s="10"/>
@@ -5093,67 +5123,67 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D71" s="9" t="s">
-        <x:v>60</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E71" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F71" s="9" t="s">
-        <x:v>131</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G71" s="10"/>
       <x:c r="H71" s="9"/>
       <x:c r="I71" s="9"/>
       <x:c r="J71" s="11"/>
       <x:c r="K71" s="9" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L71" s="11"/>
-      <x:c r="M71" s="141"/>
-      <x:c r="N71" s="129" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="O71" s="130"/>
+      <x:c r="M71" s="83"/>
+      <x:c r="N71" s="130" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="O71" s="131"/>
     </x:row>
     <x:row r="72" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C72" s="34">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D72" s="9" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E72" s="13" t="s">
-        <x:v>11</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F72" s="13" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G72" s="13"/>
       <x:c r="H72" s="13"/>
       <x:c r="I72" s="13"/>
       <x:c r="J72" s="14"/>
       <x:c r="K72" s="13" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L72" s="14"/>
       <x:c r="M72" s="14" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="N72" s="131"/>
-      <x:c r="O72" s="132"/>
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="N72" s="132"/>
+      <x:c r="O72" s="133"/>
     </x:row>
     <x:row r="73" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C73" s="35">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D73" s="13" t="s">
-        <x:v>45</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E73" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F73" s="16" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G73" s="16">
         <x:v>4000</x:v>
@@ -5162,27 +5192,27 @@
       <x:c r="I73" s="16"/>
       <x:c r="J73" s="16"/>
       <x:c r="K73" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L73" s="16"/>
       <x:c r="M73" s="17" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="N73" s="133"/>
-      <x:c r="O73" s="134"/>
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="N73" s="134"/>
+      <x:c r="O73" s="135"/>
     </x:row>
     <x:row r="74" spans="3:15" ht="62.25" customHeight="1">
       <x:c r="C74" s="35">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D74" s="13" t="s">
-        <x:v>57</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E74" s="16" t="s">
-        <x:v>127</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F74" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G74" s="16">
         <x:v>3</x:v>
@@ -5193,267 +5223,267 @@
       <x:c r="K74" s="16"/>
       <x:c r="L74" s="16"/>
       <x:c r="M74" s="17"/>
-      <x:c r="N74" s="117" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="O74" s="118"/>
+      <x:c r="N74" s="118" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O74" s="119"/>
     </x:row>
     <x:row r="75" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C75" s="35">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D75" s="13" t="s">
-        <x:v>34</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E75" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F75" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G75" s="16"/>
       <x:c r="H75" s="16"/>
       <x:c r="I75" s="16"/>
       <x:c r="J75" s="16"/>
       <x:c r="K75" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L75" s="16"/>
       <x:c r="M75" s="17" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="N75" s="133"/>
-      <x:c r="O75" s="134"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="N75" s="134"/>
+      <x:c r="O75" s="135"/>
     </x:row>
     <x:row r="76" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C76" s="47">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D76" s="48" t="s">
-        <x:v>35</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E76" s="48" t="s">
-        <x:v>67</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F76" s="48" t="s">
-        <x:v>77</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G76" s="48"/>
       <x:c r="H76" s="48"/>
       <x:c r="I76" s="48"/>
       <x:c r="J76" s="48"/>
       <x:c r="K76" s="48" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L76" s="48"/>
       <x:c r="M76" s="48" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="N76" s="135"/>
-      <x:c r="O76" s="136"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="N76" s="136"/>
+      <x:c r="O76" s="137"/>
     </x:row>
     <x:row r="80" spans="3:15" ht="21">
-      <x:c r="C80" s="83" t="s">
+      <x:c r="C80" s="84" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D80" s="85"/>
+      <x:c r="E80" s="85"/>
+      <x:c r="F80" s="85"/>
+      <x:c r="G80" s="85"/>
+      <x:c r="H80" s="85"/>
+      <x:c r="I80" s="85"/>
+      <x:c r="J80" s="85"/>
+      <x:c r="K80" s="85"/>
+      <x:c r="L80" s="85"/>
+      <x:c r="M80" s="85"/>
+      <x:c r="N80" s="85"/>
+      <x:c r="O80" s="86"/>
+    </x:row>
+    <x:row r="81" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C81" s="87" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D81" s="88"/>
+      <x:c r="E81" s="89" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F81" s="90"/>
+      <x:c r="G81" s="90"/>
+      <x:c r="H81" s="90"/>
+      <x:c r="I81" s="90"/>
+      <x:c r="J81" s="90"/>
+      <x:c r="K81" s="90"/>
+      <x:c r="L81" s="90"/>
+      <x:c r="M81" s="88"/>
+      <x:c r="N81" s="41" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="O81" s="42"/>
+    </x:row>
+    <x:row r="82" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C82" s="87" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D82" s="88"/>
+      <x:c r="E82" s="91" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F82" s="90"/>
+      <x:c r="G82" s="90"/>
+      <x:c r="H82" s="90"/>
+      <x:c r="I82" s="90"/>
+      <x:c r="J82" s="90"/>
+      <x:c r="K82" s="90"/>
+      <x:c r="L82" s="90"/>
+      <x:c r="M82" s="88"/>
+      <x:c r="N82" s="41" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O82" s="42"/>
+    </x:row>
+    <x:row r="83" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C83" s="87" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D83" s="88"/>
+      <x:c r="E83" s="89"/>
+      <x:c r="F83" s="90"/>
+      <x:c r="G83" s="90"/>
+      <x:c r="H83" s="90"/>
+      <x:c r="I83" s="90"/>
+      <x:c r="J83" s="90"/>
+      <x:c r="K83" s="90"/>
+      <x:c r="L83" s="90"/>
+      <x:c r="M83" s="88"/>
+      <x:c r="N83" s="3" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="O83" s="54" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C84" s="87" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D84" s="88"/>
+      <x:c r="E84" s="89" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F84" s="90"/>
+      <x:c r="G84" s="90"/>
+      <x:c r="H84" s="90"/>
+      <x:c r="I84" s="90"/>
+      <x:c r="J84" s="90"/>
+      <x:c r="K84" s="90"/>
+      <x:c r="L84" s="90"/>
+      <x:c r="M84" s="88"/>
+      <x:c r="N84" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="O84" s="5"/>
+    </x:row>
+    <x:row r="85" spans="3:15" ht="17.80000000000000071054">
+      <x:c r="C85" s="87" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D80" s="84"/>
-      <x:c r="E80" s="84"/>
-      <x:c r="F80" s="84"/>
-      <x:c r="G80" s="84"/>
-      <x:c r="H80" s="84"/>
-      <x:c r="I80" s="84"/>
-      <x:c r="J80" s="84"/>
-      <x:c r="K80" s="84"/>
-      <x:c r="L80" s="84"/>
-      <x:c r="M80" s="84"/>
-      <x:c r="N80" s="84"/>
-      <x:c r="O80" s="85"/>
-    </x:row>
-    <x:row r="81" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C81" s="86" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D81" s="87"/>
-      <x:c r="E81" s="88" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F81" s="89"/>
-      <x:c r="G81" s="89"/>
-      <x:c r="H81" s="89"/>
-      <x:c r="I81" s="89"/>
-      <x:c r="J81" s="89"/>
-      <x:c r="K81" s="89"/>
-      <x:c r="L81" s="89"/>
-      <x:c r="M81" s="87"/>
-      <x:c r="N81" s="41" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="O81" s="42"/>
-    </x:row>
-    <x:row r="82" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C82" s="86" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D82" s="87"/>
-      <x:c r="E82" s="90" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F82" s="89"/>
-      <x:c r="G82" s="89"/>
-      <x:c r="H82" s="89"/>
-      <x:c r="I82" s="89"/>
-      <x:c r="J82" s="89"/>
-      <x:c r="K82" s="89"/>
-      <x:c r="L82" s="89"/>
-      <x:c r="M82" s="87"/>
-      <x:c r="N82" s="41" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="O82" s="42"/>
-    </x:row>
-    <x:row r="83" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C83" s="86" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D83" s="87"/>
-      <x:c r="E83" s="88"/>
-      <x:c r="F83" s="89"/>
-      <x:c r="G83" s="89"/>
-      <x:c r="H83" s="89"/>
-      <x:c r="I83" s="89"/>
-      <x:c r="J83" s="89"/>
-      <x:c r="K83" s="89"/>
-      <x:c r="L83" s="89"/>
-      <x:c r="M83" s="87"/>
-      <x:c r="N83" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="O83" s="54" t="s">
-        <x:v>83</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C84" s="86" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D84" s="87"/>
-      <x:c r="E84" s="88" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F84" s="89"/>
-      <x:c r="G84" s="89"/>
-      <x:c r="H84" s="89"/>
-      <x:c r="I84" s="89"/>
-      <x:c r="J84" s="89"/>
-      <x:c r="K84" s="89"/>
-      <x:c r="L84" s="89"/>
-      <x:c r="M84" s="87"/>
-      <x:c r="N84" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="O84" s="5"/>
-    </x:row>
-    <x:row r="85" spans="3:15" ht="17.80000000000000071054">
-      <x:c r="C85" s="86" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D85" s="87"/>
-      <x:c r="E85" s="91"/>
-      <x:c r="F85" s="92"/>
-      <x:c r="G85" s="92"/>
-      <x:c r="H85" s="92"/>
-      <x:c r="I85" s="92"/>
-      <x:c r="J85" s="92"/>
-      <x:c r="K85" s="92"/>
-      <x:c r="L85" s="92"/>
-      <x:c r="M85" s="92"/>
-      <x:c r="N85" s="92"/>
-      <x:c r="O85" s="93"/>
+      <x:c r="D85" s="88"/>
+      <x:c r="E85" s="92"/>
+      <x:c r="F85" s="93"/>
+      <x:c r="G85" s="93"/>
+      <x:c r="H85" s="93"/>
+      <x:c r="I85" s="93"/>
+      <x:c r="J85" s="93"/>
+      <x:c r="K85" s="93"/>
+      <x:c r="L85" s="93"/>
+      <x:c r="M85" s="93"/>
+      <x:c r="N85" s="93"/>
+      <x:c r="O85" s="94"/>
     </x:row>
     <x:row r="86" spans="3:15" ht="26.75">
       <x:c r="C86" s="43" t="s">
-        <x:v>13</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D86" s="44" t="s">
-        <x:v>37</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E86" s="44" t="s">
-        <x:v>6</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F86" s="44" t="s">
-        <x:v>69</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G86" s="29" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H86" s="29" t="s">
-        <x:v>47</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I86" s="29" t="s">
-        <x:v>56</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J86" s="29" t="s">
-        <x:v>7</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="K86" s="29" t="s">
-        <x:v>20</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="L86" s="29" t="s">
-        <x:v>29</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="M86" s="29" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="N86" s="125" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="O86" s="126"/>
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="N86" s="126" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O86" s="127"/>
     </x:row>
     <x:row r="87" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C87" s="30">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D87" s="45" t="s">
-        <x:v>33</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E87" s="46" t="s">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F87" s="31" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G87" s="31"/>
       <x:c r="H87" s="32" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I87" s="32" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J87" s="32" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K87" s="31" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L87" s="32"/>
       <x:c r="M87" s="32"/>
-      <x:c r="N87" s="137" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="O87" s="138"/>
+      <x:c r="N87" s="138" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="O87" s="139"/>
     </x:row>
     <x:row r="88" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C88" s="33">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D88" s="49" t="s">
-        <x:v>10</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E88" s="50" t="s">
-        <x:v>64</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F88" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G88" s="9">
         <x:v>1</x:v>
@@ -5462,27 +5492,27 @@
       <x:c r="I88" s="9"/>
       <x:c r="J88" s="11"/>
       <x:c r="K88" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L88" s="10"/>
       <x:c r="M88" s="10"/>
-      <x:c r="N88" s="139" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="O88" s="140"/>
+      <x:c r="N88" s="140" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="O88" s="141"/>
     </x:row>
     <x:row r="89" spans="3:15" s="57" customFormat="1" ht="62.25" customHeight="1">
       <x:c r="C89" s="35">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D89" s="13" t="s">
-        <x:v>57</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E89" s="16" t="s">
-        <x:v>127</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F89" s="16" t="s">
-        <x:v>28</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G89" s="16">
         <x:v>3</x:v>
@@ -5493,68 +5523,68 @@
       <x:c r="K89" s="16"/>
       <x:c r="L89" s="16"/>
       <x:c r="M89" s="17"/>
-      <x:c r="N89" s="117" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="O89" s="118"/>
+      <x:c r="N89" s="118" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O89" s="119"/>
     </x:row>
     <x:row r="90" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C90" s="35">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D90" s="13" t="s">
-        <x:v>34</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E90" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F90" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G90" s="16"/>
       <x:c r="H90" s="16"/>
       <x:c r="I90" s="16"/>
       <x:c r="J90" s="16"/>
       <x:c r="K90" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L90" s="16"/>
       <x:c r="M90" s="17" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="N90" s="133" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="O90" s="134"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="N90" s="134" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="O90" s="135"/>
     </x:row>
     <x:row r="91" spans="3:15" ht="17.5" customHeight="1">
       <x:c r="C91" s="47">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D91" s="48" t="s">
-        <x:v>38</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E91" s="48" t="s">
-        <x:v>67</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F91" s="48" t="s">
-        <x:v>77</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G91" s="48"/>
       <x:c r="H91" s="48"/>
       <x:c r="I91" s="48"/>
       <x:c r="J91" s="48"/>
       <x:c r="K91" s="48" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L91" s="48"/>
       <x:c r="M91" s="51" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="N91" s="135" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="O91" s="136"/>
+      <x:c r="N91" s="136" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="O91" s="137"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="94">

--- a/프로젝트 문서/설계 문서/테이블 정의서/테이블 정의서 (240902 수정).xlsx
+++ b/프로젝트 문서/설계 문서/테이블 정의서/테이블 정의서 (240902 수정).xlsx
@@ -224,9 +224,6 @@
     <x:t>사용자 고유 번호 (숫자형)</x:t>
   </x:si>
   <x:si>
-    <x:t>TOTAL_POINTT</x:t>
-  </x:si>
-  <x:si>
     <x:t>카페 고유 번호 (숫자형)</x:t>
   </x:si>
   <x:si>
@@ -237,6 +234,9 @@
   </x:si>
   <x:si>
     <x:t>AUTO_INCREMENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOTAL_POINT</x:t>
   </x:si>
   <x:si>
     <x:t>휠체어사용</x:t>
@@ -3559,8 +3559,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B5:O91"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="E13" activeCellId="0" sqref="E13:E13"/>
+    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="E88" activeCellId="0" sqref="E88:E88"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
@@ -3763,7 +3763,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M12" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N12" s="97" t="s">
         <x:v>65</x:v>
@@ -3992,7 +3992,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="N20" s="102" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="O20" s="103"/>
     </x:row>
@@ -4183,10 +4183,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M30" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N30" s="97" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="O30" s="109"/>
     </x:row>
@@ -4475,7 +4475,7 @@
       <x:c r="L41" s="56"/>
       <x:c r="M41" s="56"/>
       <x:c r="N41" s="112" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="O41" s="113"/>
     </x:row>
@@ -4502,7 +4502,7 @@
       <x:c r="L42" s="56"/>
       <x:c r="M42" s="56"/>
       <x:c r="N42" s="112" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="O42" s="113"/>
     </x:row>
@@ -4529,7 +4529,7 @@
       <x:c r="L43" s="56"/>
       <x:c r="M43" s="56"/>
       <x:c r="N43" s="112" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="O43" s="113"/>
     </x:row>
@@ -4556,7 +4556,7 @@
       <x:c r="L44" s="56"/>
       <x:c r="M44" s="56"/>
       <x:c r="N44" s="112" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="O44" s="113"/>
     </x:row>
@@ -4583,7 +4583,7 @@
       <x:c r="L45" s="56"/>
       <x:c r="M45" s="56"/>
       <x:c r="N45" s="112" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="O45" s="113"/>
     </x:row>
@@ -4610,7 +4610,7 @@
       <x:c r="L46" s="56"/>
       <x:c r="M46" s="56"/>
       <x:c r="N46" s="112" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="O46" s="113"/>
     </x:row>
@@ -4622,7 +4622,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E47" s="58" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F47" s="59" t="s">
         <x:v>21</x:v>
